--- a/Experimentos2/BA.xlsx
+++ b/Experimentos2/BA.xlsx
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8080000000000001</v>
+        <v>0.954</v>
       </c>
       <c r="C11">
-        <v>0.5639999999999999</v>
+        <v>0.721</v>
       </c>
       <c r="D11">
-        <v>0.5570000000000001</v>
+        <v>0.832</v>
       </c>
       <c r="E11">
-        <v>0.194</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F11">
-        <v>0.842</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.468</v>
+        <v>0.918</v>
       </c>
       <c r="C12">
-        <v>0.359</v>
+        <v>0.993</v>
       </c>
       <c r="D12">
-        <v>0.544</v>
+        <v>0.806</v>
       </c>
       <c r="E12">
-        <v>0.66</v>
+        <v>0.981</v>
       </c>
       <c r="F12">
-        <v>0.573</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.615</v>
+        <v>0.236</v>
       </c>
       <c r="C13">
-        <v>0.606</v>
+        <v>0.595</v>
       </c>
       <c r="D13">
-        <v>0.482</v>
+        <v>0.919</v>
       </c>
       <c r="E13">
-        <v>0.214</v>
+        <v>0.621</v>
       </c>
       <c r="F13">
-        <v>0.774</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.092</v>
+        <v>0.599</v>
       </c>
       <c r="C14">
-        <v>0.764</v>
+        <v>0.868</v>
       </c>
       <c r="D14">
-        <v>0.281</v>
+        <v>0.159</v>
       </c>
       <c r="E14">
-        <v>0.545</v>
+        <v>0.852</v>
       </c>
       <c r="F14">
-        <v>0.236</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.375</v>
+        <v>0.49</v>
       </c>
       <c r="C15">
-        <v>0.744</v>
+        <v>0.503</v>
       </c>
       <c r="D15">
-        <v>0.435</v>
+        <v>0.476</v>
       </c>
       <c r="E15">
-        <v>0.416</v>
+        <v>1.036</v>
       </c>
       <c r="F15">
-        <v>0.633</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.646</v>
+        <v>0.516</v>
       </c>
       <c r="C16">
-        <v>0.6830000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="D16">
-        <v>0.842</v>
+        <v>0.609</v>
       </c>
       <c r="E16">
-        <v>0.08</v>
+        <v>1.061</v>
       </c>
       <c r="F16">
-        <v>0.051</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.758</v>
+        <v>0.081</v>
       </c>
       <c r="C17">
-        <v>0.402</v>
+        <v>0.712</v>
       </c>
       <c r="D17">
-        <v>0.948</v>
+        <v>0.957</v>
       </c>
       <c r="E17">
-        <v>0.497</v>
+        <v>0.581</v>
       </c>
       <c r="F17">
-        <v>0.904</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.151</v>
+        <v>0.364</v>
       </c>
       <c r="C18">
-        <v>0.496</v>
+        <v>0.179</v>
       </c>
       <c r="D18">
-        <v>0.831</v>
+        <v>0.549</v>
       </c>
       <c r="E18">
-        <v>0.287</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F18">
-        <v>0.745</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.239</v>
+        <v>0.737</v>
       </c>
       <c r="C19">
-        <v>0.509</v>
+        <v>0.511</v>
       </c>
       <c r="D19">
-        <v>0.383</v>
+        <v>0.754</v>
       </c>
       <c r="E19">
-        <v>0.596</v>
+        <v>0.831</v>
       </c>
       <c r="F19">
-        <v>0.299</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.798</v>
+        <v>2.54</v>
       </c>
       <c r="C20">
-        <v>1.204</v>
+        <v>1.942</v>
       </c>
       <c r="D20">
-        <v>1.057</v>
+        <v>1.612</v>
       </c>
       <c r="E20">
-        <v>0.403</v>
+        <v>2.254</v>
       </c>
       <c r="F20">
-        <v>2.259</v>
+        <v>1.283</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.005</v>
+        <v>2.435</v>
       </c>
       <c r="C21">
-        <v>0.736</v>
+        <v>2.714</v>
       </c>
       <c r="D21">
-        <v>1.035</v>
+        <v>1.563</v>
       </c>
       <c r="E21">
-        <v>1.671</v>
+        <v>2.363</v>
       </c>
       <c r="F21">
-        <v>1.608</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.342</v>
+        <v>0.534</v>
       </c>
       <c r="C22">
-        <v>1.288</v>
+        <v>1.572</v>
       </c>
       <c r="D22">
-        <v>0.909</v>
+        <v>1.792</v>
       </c>
       <c r="E22">
-        <v>0.468</v>
+        <v>1.461</v>
       </c>
       <c r="F22">
-        <v>2.229</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.125</v>
+        <v>1.539</v>
       </c>
       <c r="C23">
-        <v>1.64</v>
+        <v>2.347</v>
       </c>
       <c r="D23">
-        <v>0.505</v>
+        <v>0.257</v>
       </c>
       <c r="E23">
-        <v>1.383</v>
+        <v>2.061</v>
       </c>
       <c r="F23">
-        <v>0.679</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.777</v>
+        <v>1.232</v>
       </c>
       <c r="C24">
-        <v>1.591</v>
+        <v>1.3</v>
       </c>
       <c r="D24">
-        <v>0.8100000000000001</v>
+        <v>0.891</v>
       </c>
       <c r="E24">
-        <v>1.006</v>
+        <v>2.497</v>
       </c>
       <c r="F24">
-        <v>1.837</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C25">
-        <v>1.448</v>
+        <v>2.372</v>
       </c>
       <c r="D25">
-        <v>1.639</v>
+        <v>1.164</v>
       </c>
       <c r="E25">
-        <v>0.123</v>
+        <v>2.587</v>
       </c>
       <c r="F25">
-        <v>0.145</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.655</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C26">
-        <v>0.8100000000000001</v>
+        <v>1.888</v>
       </c>
       <c r="D26">
-        <v>1.854</v>
+        <v>1.868</v>
       </c>
       <c r="E26">
-        <v>1.264</v>
+        <v>1.39</v>
       </c>
       <c r="F26">
-        <v>2.627</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.245</v>
+        <v>0.868</v>
       </c>
       <c r="C27">
-        <v>1.018</v>
+        <v>0.361</v>
       </c>
       <c r="D27">
-        <v>1.617</v>
+        <v>1.043</v>
       </c>
       <c r="E27">
-        <v>0.707</v>
+        <v>0.15</v>
       </c>
       <c r="F27">
-        <v>2.164</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.444</v>
+        <v>1.902</v>
       </c>
       <c r="C28">
-        <v>1.044</v>
+        <v>1.306</v>
       </c>
       <c r="D28">
-        <v>0.709</v>
+        <v>1.458</v>
       </c>
       <c r="E28">
-        <v>1.528</v>
+        <v>2.015</v>
       </c>
       <c r="F28">
-        <v>0.869</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.299</v>
+        <v>4.72</v>
       </c>
       <c r="C29">
-        <v>1.863</v>
+        <v>4.267</v>
       </c>
       <c r="D29">
-        <v>1.948</v>
+        <v>2.587</v>
       </c>
       <c r="E29">
-        <v>0.799</v>
+        <v>4.572</v>
       </c>
       <c r="F29">
-        <v>4.786</v>
+        <v>2.677</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.358</v>
+        <v>4.521</v>
       </c>
       <c r="C30">
-        <v>1.124</v>
+        <v>5.99</v>
       </c>
       <c r="D30">
-        <v>1.909</v>
+        <v>2.509</v>
       </c>
       <c r="E30">
-        <v>3.536</v>
+        <v>4.799</v>
       </c>
       <c r="F30">
-        <v>3.433</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.18</v>
+        <v>0.947</v>
       </c>
       <c r="C31">
-        <v>1.991</v>
+        <v>3.437</v>
       </c>
       <c r="D31">
-        <v>1.669</v>
+        <v>2.882</v>
       </c>
       <c r="E31">
-        <v>0.9429999999999999</v>
+        <v>2.939</v>
       </c>
       <c r="F31">
-        <v>4.78</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.202</v>
+        <v>2.834</v>
       </c>
       <c r="C32">
-        <v>2.543</v>
+        <v>5.166</v>
       </c>
       <c r="D32">
-        <v>0.902</v>
+        <v>0.379</v>
       </c>
       <c r="E32">
-        <v>2.924</v>
+        <v>4.185</v>
       </c>
       <c r="F32">
-        <v>1.455</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.795</v>
+        <v>2.256</v>
       </c>
       <c r="C33">
-        <v>2.464</v>
+        <v>2.826</v>
       </c>
       <c r="D33">
-        <v>1.479</v>
+        <v>1.41</v>
       </c>
       <c r="E33">
-        <v>2.1</v>
+        <v>5.074</v>
       </c>
       <c r="F33">
-        <v>3.944</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.316</v>
+        <v>2.382</v>
       </c>
       <c r="C34">
-        <v>2.236</v>
+        <v>5.219</v>
       </c>
       <c r="D34">
-        <v>3.057</v>
+        <v>1.857</v>
       </c>
       <c r="E34">
-        <v>0.206</v>
+        <v>5.271</v>
       </c>
       <c r="F34">
-        <v>0.309</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.938</v>
+        <v>0.097</v>
       </c>
       <c r="C35">
-        <v>1.23</v>
+        <v>4.136</v>
       </c>
       <c r="D35">
-        <v>3.466</v>
+        <v>3.006</v>
       </c>
       <c r="E35">
-        <v>2.671</v>
+        <v>2.804</v>
       </c>
       <c r="F35">
-        <v>5.641</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.488</v>
+        <v>1.567</v>
       </c>
       <c r="C36">
-        <v>1.556</v>
+        <v>0.723</v>
       </c>
       <c r="D36">
-        <v>3.016</v>
+        <v>1.66</v>
       </c>
       <c r="E36">
-        <v>1.474</v>
+        <v>0.248</v>
       </c>
       <c r="F36">
-        <v>4.647</v>
+        <v>2.627</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.973</v>
+        <v>3.509</v>
       </c>
       <c r="C37">
-        <v>1.595</v>
+        <v>2.833</v>
       </c>
       <c r="D37">
-        <v>1.289</v>
+        <v>2.337</v>
       </c>
       <c r="E37">
-        <v>3.239</v>
+        <v>4.093</v>
       </c>
       <c r="F37">
-        <v>1.866</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10.504</v>
+        <v>8.015000000000001</v>
       </c>
       <c r="C38">
-        <v>2.552</v>
+        <v>9.054</v>
       </c>
       <c r="D38">
-        <v>3.582</v>
+        <v>3.88</v>
       </c>
       <c r="E38">
-        <v>1.591</v>
+        <v>8.965</v>
       </c>
       <c r="F38">
-        <v>9.667</v>
+        <v>5.823</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.713</v>
+        <v>7.675</v>
       </c>
       <c r="C39">
-        <v>1.53</v>
+        <v>12.734</v>
       </c>
       <c r="D39">
-        <v>3.511</v>
+        <v>3.763</v>
       </c>
       <c r="E39">
-        <v>7.236</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="F39">
-        <v>6.946</v>
+        <v>2.956</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.741</v>
+        <v>1.574</v>
       </c>
       <c r="C40">
-        <v>2.727</v>
+        <v>7.279</v>
       </c>
       <c r="D40">
-        <v>3.062</v>
+        <v>4.327</v>
       </c>
       <c r="E40">
-        <v>1.889</v>
+        <v>5.737</v>
       </c>
       <c r="F40">
-        <v>9.682</v>
+        <v>1.049</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.39</v>
+        <v>4.794</v>
       </c>
       <c r="C41">
-        <v>3.488</v>
+        <v>10.972</v>
       </c>
       <c r="D41">
-        <v>1.629</v>
+        <v>0.54</v>
       </c>
       <c r="E41">
-        <v>5.978</v>
+        <v>8.205</v>
       </c>
       <c r="F41">
-        <v>2.946</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.321</v>
+        <v>3.807</v>
       </c>
       <c r="C42">
-        <v>3.378</v>
+        <v>5.972</v>
       </c>
       <c r="D42">
-        <v>2.706</v>
+        <v>2.098</v>
       </c>
       <c r="E42">
-        <v>4.274</v>
+        <v>9.958</v>
       </c>
       <c r="F42">
-        <v>7.99</v>
+        <v>2.174</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8.074</v>
+        <v>4.021</v>
       </c>
       <c r="C43">
-        <v>3.061</v>
+        <v>11.084</v>
       </c>
       <c r="D43">
-        <v>5.656</v>
+        <v>2.776</v>
       </c>
       <c r="E43">
-        <v>0.373</v>
+        <v>10.353</v>
       </c>
       <c r="F43">
-        <v>0.624</v>
+        <v>2.059</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>9.609</v>
+        <v>0.12</v>
       </c>
       <c r="C44">
-        <v>1.67</v>
+        <v>8.769</v>
       </c>
       <c r="D44">
-        <v>6.421</v>
+        <v>4.514</v>
       </c>
       <c r="E44">
-        <v>5.458</v>
+        <v>5.476</v>
       </c>
       <c r="F44">
-        <v>11.429</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.093</v>
+        <v>2.628</v>
       </c>
       <c r="C45">
-        <v>2.119</v>
+        <v>1.477</v>
       </c>
       <c r="D45">
-        <v>5.58</v>
+        <v>2.478</v>
       </c>
       <c r="E45">
-        <v>2.992</v>
+        <v>0.423</v>
       </c>
       <c r="F45">
-        <v>9.414999999999999</v>
+        <v>5.754</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.29</v>
+        <v>5.942</v>
       </c>
       <c r="C46">
-        <v>2.172</v>
+        <v>5.984</v>
       </c>
       <c r="D46">
-        <v>2.352</v>
+        <v>3.502</v>
       </c>
       <c r="E46">
-        <v>6.629</v>
+        <v>8.025</v>
       </c>
       <c r="F46">
-        <v>3.78</v>
+        <v>1.213</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>24.781</v>
+        <v>19.105</v>
       </c>
       <c r="C47">
-        <v>4.403</v>
+        <v>14.021</v>
       </c>
       <c r="D47">
-        <v>7.79</v>
+        <v>6.737</v>
       </c>
       <c r="E47">
-        <v>3.532</v>
+        <v>20.892</v>
       </c>
       <c r="F47">
-        <v>20.627</v>
+        <v>9.141999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>13.432</v>
+        <v>18.291</v>
       </c>
       <c r="C48">
-        <v>2.618</v>
+        <v>19.732</v>
       </c>
       <c r="D48">
-        <v>7.635</v>
+        <v>6.533</v>
       </c>
       <c r="E48">
-        <v>16.285</v>
+        <v>21.946</v>
       </c>
       <c r="F48">
-        <v>14.827</v>
+        <v>4.631</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>18.235</v>
+        <v>3.69</v>
       </c>
       <c r="C49">
-        <v>4.707</v>
+        <v>11.266</v>
       </c>
       <c r="D49">
-        <v>6.648</v>
+        <v>7.519</v>
       </c>
       <c r="E49">
-        <v>4.205</v>
+        <v>13.331</v>
       </c>
       <c r="F49">
-        <v>20.673</v>
+        <v>1.626</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.822</v>
+        <v>11.395</v>
       </c>
       <c r="C50">
-        <v>6.034</v>
+        <v>16.996</v>
       </c>
       <c r="D50">
-        <v>3.5</v>
+        <v>0.895</v>
       </c>
       <c r="E50">
-        <v>13.445</v>
+        <v>19.114</v>
       </c>
       <c r="F50">
-        <v>6.289</v>
+        <v>2.389</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10.133</v>
+        <v>9.032999999999999</v>
       </c>
       <c r="C51">
-        <v>5.841</v>
+        <v>9.236000000000001</v>
       </c>
       <c r="D51">
-        <v>5.865</v>
+        <v>3.619</v>
       </c>
       <c r="E51">
-        <v>9.593</v>
+        <v>23.218</v>
       </c>
       <c r="F51">
-        <v>17.06</v>
+        <v>3.402</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>19.023</v>
+        <v>9.545</v>
       </c>
       <c r="C52">
-        <v>5.286</v>
+        <v>17.17</v>
       </c>
       <c r="D52">
-        <v>12.347</v>
+        <v>4.806</v>
       </c>
       <c r="E52">
-        <v>0.783</v>
+        <v>24.146</v>
       </c>
       <c r="F52">
-        <v>1.33</v>
+        <v>3.221</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22.659</v>
+        <v>0.209</v>
       </c>
       <c r="C53">
-        <v>2.858</v>
+        <v>13.576</v>
       </c>
       <c r="D53">
-        <v>14.028</v>
+        <v>7.846</v>
       </c>
       <c r="E53">
-        <v>12.271</v>
+        <v>12.723</v>
       </c>
       <c r="F53">
-        <v>24.405</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.486</v>
+        <v>6.21</v>
       </c>
       <c r="C54">
-        <v>3.641</v>
+        <v>2.259</v>
       </c>
       <c r="D54">
-        <v>12.18</v>
+        <v>4.285</v>
       </c>
       <c r="E54">
-        <v>6.701</v>
+        <v>0.888</v>
       </c>
       <c r="F54">
-        <v>20.104</v>
+        <v>9.052</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.321</v>
+        <v>14.14</v>
       </c>
       <c r="C55">
-        <v>3.732</v>
+        <v>9.254</v>
       </c>
       <c r="D55">
-        <v>5.088</v>
+        <v>6.076</v>
       </c>
       <c r="E55">
-        <v>14.916</v>
+        <v>18.694</v>
       </c>
       <c r="F55">
-        <v>8.07</v>
+        <v>1.887</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>58.18</v>
+        <v>48.847</v>
       </c>
       <c r="C56">
-        <v>8.284000000000001</v>
+        <v>19.267</v>
       </c>
       <c r="D56">
-        <v>17.652</v>
+        <v>12.329</v>
       </c>
       <c r="E56">
-        <v>8.066000000000001</v>
+        <v>50.467</v>
       </c>
       <c r="F56">
-        <v>44.56</v>
+        <v>12.734</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>31.489</v>
+        <v>46.762</v>
       </c>
       <c r="C57">
-        <v>4.899</v>
+        <v>27.124</v>
       </c>
       <c r="D57">
-        <v>17.3</v>
+        <v>11.954</v>
       </c>
       <c r="E57">
-        <v>37.415</v>
+        <v>53.019</v>
       </c>
       <c r="F57">
-        <v>32.033</v>
+        <v>6.443</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>42.785</v>
+        <v>9.367000000000001</v>
       </c>
       <c r="C58">
-        <v>8.859</v>
+        <v>15.477</v>
       </c>
       <c r="D58">
-        <v>15.052</v>
+        <v>13.767</v>
       </c>
       <c r="E58">
-        <v>9.615</v>
+        <v>32.161</v>
       </c>
       <c r="F58">
-        <v>44.666</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.832</v>
+        <v>29.1</v>
       </c>
       <c r="C59">
-        <v>11.375</v>
+        <v>23.359</v>
       </c>
       <c r="D59">
-        <v>7.885</v>
+        <v>1.59</v>
       </c>
       <c r="E59">
-        <v>30.88</v>
+        <v>46.163</v>
       </c>
       <c r="F59">
-        <v>13.587</v>
+        <v>3.316</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>23.73</v>
+        <v>23.05</v>
       </c>
       <c r="C60">
-        <v>11.008</v>
+        <v>12.684</v>
       </c>
       <c r="D60">
-        <v>13.269</v>
+        <v>6.597</v>
       </c>
       <c r="E60">
-        <v>22.014</v>
+        <v>56.098</v>
       </c>
       <c r="F60">
-        <v>36.859</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>44.638</v>
+        <v>24.362</v>
       </c>
       <c r="C61">
-        <v>9.955</v>
+        <v>23.598</v>
       </c>
       <c r="D61">
-        <v>28.028</v>
+        <v>8.779</v>
       </c>
       <c r="E61">
-        <v>1.741</v>
+        <v>58.346</v>
       </c>
       <c r="F61">
-        <v>2.871</v>
+        <v>4.478</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>53.189</v>
+        <v>0.451</v>
       </c>
       <c r="C62">
-        <v>5.351</v>
+        <v>18.653</v>
       </c>
       <c r="D62">
-        <v>31.855</v>
+        <v>14.368</v>
       </c>
       <c r="E62">
-        <v>28.179</v>
+        <v>30.69</v>
       </c>
       <c r="F62">
-        <v>52.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.745</v>
+        <v>15.82</v>
       </c>
       <c r="C63">
-        <v>6.835</v>
+        <v>3.085</v>
       </c>
       <c r="D63">
-        <v>27.647</v>
+        <v>7.822</v>
       </c>
       <c r="E63">
-        <v>15.361</v>
+        <v>2.037</v>
       </c>
       <c r="F63">
-        <v>43.437</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>12.412</v>
+        <v>36.129</v>
       </c>
       <c r="C64">
-        <v>7.007</v>
+        <v>12.708</v>
       </c>
       <c r="D64">
-        <v>11.5</v>
+        <v>11.114</v>
       </c>
       <c r="E64">
-        <v>34.266</v>
+        <v>45.147</v>
       </c>
       <c r="F64">
-        <v>17.435</v>
+        <v>2.616</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>98.613</v>
+        <v>86.979</v>
       </c>
       <c r="C65">
-        <v>20.048</v>
+        <v>32.825</v>
       </c>
       <c r="D65">
-        <v>27.936</v>
+        <v>22.041</v>
       </c>
       <c r="E65">
-        <v>13.254</v>
+        <v>92.191</v>
       </c>
       <c r="F65">
-        <v>74.34999999999999</v>
+        <v>25.518</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>53.35</v>
+        <v>83.264</v>
       </c>
       <c r="C66">
-        <v>11.823</v>
+        <v>46.23</v>
       </c>
       <c r="D66">
-        <v>27.379</v>
+        <v>21.369</v>
       </c>
       <c r="E66">
-        <v>61.606</v>
+        <v>96.85599999999999</v>
       </c>
       <c r="F66">
-        <v>53.442</v>
+        <v>12.905</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>72.506</v>
+        <v>16.643</v>
       </c>
       <c r="C67">
-        <v>21.444</v>
+        <v>26.359</v>
       </c>
       <c r="D67">
-        <v>23.816</v>
+        <v>24.619</v>
       </c>
       <c r="E67">
-        <v>15.806</v>
+        <v>58.728</v>
       </c>
       <c r="F67">
-        <v>74.53</v>
+        <v>4.496</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.058</v>
+        <v>51.798</v>
       </c>
       <c r="C68">
-        <v>27.557</v>
+        <v>39.806</v>
       </c>
       <c r="D68">
-        <v>12.458</v>
+        <v>2.797</v>
       </c>
       <c r="E68">
-        <v>50.84</v>
+        <v>84.32299999999999</v>
       </c>
       <c r="F68">
-        <v>22.653</v>
+        <v>6.635</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>40.193</v>
+        <v>41.02</v>
       </c>
       <c r="C69">
-        <v>26.665</v>
+        <v>21.593</v>
       </c>
       <c r="D69">
-        <v>20.99</v>
+        <v>11.769</v>
       </c>
       <c r="E69">
-        <v>36.233</v>
+        <v>102.484</v>
       </c>
       <c r="F69">
-        <v>61.498</v>
+        <v>9.471</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>75.648</v>
+        <v>43.357</v>
       </c>
       <c r="C70">
-        <v>24.106</v>
+        <v>40.213</v>
       </c>
       <c r="D70">
-        <v>44.38</v>
+        <v>15.68</v>
       </c>
       <c r="E70">
-        <v>2.835</v>
+        <v>106.593</v>
       </c>
       <c r="F70">
-        <v>4.766</v>
+        <v>8.965999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>90.149</v>
+        <v>0.759</v>
       </c>
       <c r="C71">
-        <v>12.92</v>
+        <v>31.776</v>
       </c>
       <c r="D71">
-        <v>50.445</v>
+        <v>25.695</v>
       </c>
       <c r="E71">
-        <v>46.391</v>
+        <v>56.039</v>
       </c>
       <c r="F71">
-        <v>87.98999999999999</v>
+        <v>3.474</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>9.693</v>
+        <v>28.139</v>
       </c>
       <c r="C72">
-        <v>16.525</v>
+        <v>5.216</v>
       </c>
       <c r="D72">
-        <v>43.776</v>
+        <v>13.965</v>
       </c>
       <c r="E72">
-        <v>25.273</v>
+        <v>3.663</v>
       </c>
       <c r="F72">
-        <v>72.479</v>
+        <v>25.297</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>20.999</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="C73">
-        <v>16.943</v>
+        <v>21.634</v>
       </c>
       <c r="D73">
-        <v>18.186</v>
+        <v>19.864</v>
       </c>
       <c r="E73">
-        <v>56.419</v>
+        <v>82.46599999999999</v>
       </c>
       <c r="F73">
-        <v>29.076</v>
+        <v>5.232</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>98.751</v>
+        <v>140.059</v>
       </c>
       <c r="C74">
-        <v>19.183</v>
+        <v>60.565</v>
       </c>
       <c r="D74">
-        <v>28.53</v>
+        <v>39.137</v>
       </c>
       <c r="E74">
-        <v>13.57</v>
+        <v>156.119</v>
       </c>
       <c r="F74">
-        <v>73.361</v>
+        <v>56.724</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>52.347</v>
+        <v>134.075</v>
       </c>
       <c r="C75">
-        <v>11.548</v>
+        <v>85.32299999999999</v>
       </c>
       <c r="D75">
-        <v>28.171</v>
+        <v>37.942</v>
       </c>
       <c r="E75">
-        <v>62.16</v>
+        <v>164.021</v>
       </c>
       <c r="F75">
-        <v>54.029</v>
+        <v>28.682</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>72.997</v>
+        <v>26.77</v>
       </c>
       <c r="C76">
-        <v>22.462</v>
+        <v>48.624</v>
       </c>
       <c r="D76">
-        <v>23.685</v>
+        <v>43.721</v>
       </c>
       <c r="E76">
-        <v>16.254</v>
+        <v>99.434</v>
       </c>
       <c r="F76">
-        <v>73.49299999999999</v>
+        <v>9.986000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.583</v>
+        <v>83.393</v>
       </c>
       <c r="C77">
-        <v>27.001</v>
+        <v>73.458</v>
       </c>
       <c r="D77">
-        <v>11.645</v>
+        <v>4.922</v>
       </c>
       <c r="E77">
-        <v>50.71</v>
+        <v>142.791</v>
       </c>
       <c r="F77">
-        <v>23.392</v>
+        <v>14.742</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>40.794</v>
+        <v>66.033</v>
       </c>
       <c r="C78">
-        <v>25.774</v>
+        <v>39.821</v>
       </c>
       <c r="D78">
-        <v>20.888</v>
+        <v>20.873</v>
       </c>
       <c r="E78">
-        <v>36.564</v>
+        <v>173.555</v>
       </c>
       <c r="F78">
-        <v>61.558</v>
+        <v>21.048</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>74.776</v>
+        <v>69.797</v>
       </c>
       <c r="C79">
-        <v>23.527</v>
+        <v>74.209</v>
       </c>
       <c r="D79">
-        <v>44.823</v>
+        <v>27.827</v>
       </c>
       <c r="E79">
-        <v>3.044</v>
+        <v>180.515</v>
       </c>
       <c r="F79">
-        <v>4.896</v>
+        <v>19.925</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>91.00700000000001</v>
+        <v>1.186</v>
       </c>
       <c r="C80">
-        <v>13.156</v>
+        <v>58.627</v>
       </c>
       <c r="D80">
-        <v>51.527</v>
+        <v>45.633</v>
       </c>
       <c r="E80">
-        <v>46.555</v>
+        <v>94.879</v>
       </c>
       <c r="F80">
-        <v>88.66200000000001</v>
+        <v>7.714</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9.390000000000001</v>
+        <v>45.286</v>
       </c>
       <c r="C81">
-        <v>15.863</v>
+        <v>9.574999999999999</v>
       </c>
       <c r="D81">
-        <v>44.261</v>
+        <v>24.778</v>
       </c>
       <c r="E81">
-        <v>25.458</v>
+        <v>6.158</v>
       </c>
       <c r="F81">
-        <v>72.29000000000001</v>
+        <v>56.236</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21.771</v>
+        <v>103.562</v>
       </c>
       <c r="C82">
-        <v>17.958</v>
+        <v>39.897</v>
       </c>
       <c r="D82">
-        <v>18.999</v>
+        <v>35.266</v>
       </c>
       <c r="E82">
-        <v>56.735</v>
+        <v>139.645</v>
       </c>
       <c r="F82">
-        <v>28.358</v>
+        <v>11.623</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>198.208</v>
+        <v>241.295</v>
       </c>
       <c r="C83">
-        <v>39.329</v>
+        <v>88.486</v>
       </c>
       <c r="D83">
-        <v>39.07</v>
+        <v>60.726</v>
       </c>
       <c r="E83">
-        <v>31.607</v>
+        <v>330.226</v>
       </c>
       <c r="F83">
-        <v>108.053</v>
+        <v>106.534</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>105.483</v>
+        <v>230.984</v>
       </c>
       <c r="C84">
-        <v>23.509</v>
+        <v>124.672</v>
       </c>
       <c r="D84">
-        <v>38.503</v>
+        <v>58.871</v>
       </c>
       <c r="E84">
-        <v>145.507</v>
+        <v>346.944</v>
       </c>
       <c r="F84">
-        <v>79.045</v>
+        <v>53.866</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>146.342</v>
+        <v>46.082</v>
       </c>
       <c r="C85">
-        <v>44.865</v>
+        <v>71.035</v>
       </c>
       <c r="D85">
-        <v>32.662</v>
+        <v>67.843</v>
       </c>
       <c r="E85">
-        <v>37.852</v>
+        <v>210.299</v>
       </c>
       <c r="F85">
-        <v>108.268</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.325</v>
+        <v>143.651</v>
       </c>
       <c r="C86">
-        <v>54.989</v>
+        <v>107.33</v>
       </c>
       <c r="D86">
-        <v>16.322</v>
+        <v>7.605</v>
       </c>
       <c r="E86">
-        <v>118.914</v>
+        <v>302.028</v>
       </c>
       <c r="F86">
-        <v>34.013</v>
+        <v>27.683</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>81.623</v>
+        <v>113.737</v>
       </c>
       <c r="C87">
-        <v>52.699</v>
+        <v>58.168</v>
       </c>
       <c r="D87">
-        <v>28.796</v>
+        <v>32.37</v>
       </c>
       <c r="E87">
-        <v>85.54600000000001</v>
+        <v>367.115</v>
       </c>
       <c r="F87">
-        <v>90.309</v>
+        <v>39.528</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>150.473</v>
+        <v>120.223</v>
       </c>
       <c r="C88">
-        <v>47.962</v>
+        <v>108.427</v>
       </c>
       <c r="D88">
-        <v>61.578</v>
+        <v>43.167</v>
       </c>
       <c r="E88">
-        <v>6.956</v>
+        <v>381.84</v>
       </c>
       <c r="F88">
-        <v>7.106</v>
+        <v>37.418</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>182.36</v>
+        <v>1.997</v>
       </c>
       <c r="C89">
-        <v>26.467</v>
+        <v>85.654</v>
       </c>
       <c r="D89">
-        <v>70.58</v>
+        <v>70.81100000000001</v>
       </c>
       <c r="E89">
-        <v>109.051</v>
+        <v>200.663</v>
       </c>
       <c r="F89">
-        <v>129.85</v>
+        <v>14.483</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>18.925</v>
+        <v>77.98699999999999</v>
       </c>
       <c r="C90">
-        <v>32.48</v>
+        <v>13.963</v>
       </c>
       <c r="D90">
-        <v>60.788</v>
+        <v>38.433</v>
       </c>
       <c r="E90">
-        <v>59.549</v>
+        <v>12.96</v>
       </c>
       <c r="F90">
-        <v>106.163</v>
+        <v>105.619</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>43.348</v>
+        <v>178.405</v>
       </c>
       <c r="C91">
-        <v>35.739</v>
+        <v>58.279</v>
       </c>
       <c r="D91">
-        <v>25.855</v>
+        <v>54.716</v>
       </c>
       <c r="E91">
-        <v>132.874</v>
+        <v>295.372</v>
       </c>
       <c r="F91">
-        <v>41.886</v>
+        <v>21.825</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>198.976</v>
+        <v>241.741</v>
       </c>
       <c r="C92">
-        <v>40.065</v>
+        <v>87.539</v>
       </c>
       <c r="D92">
-        <v>39.135</v>
+        <v>60.462</v>
       </c>
       <c r="E92">
-        <v>31.423</v>
+        <v>330.006</v>
       </c>
       <c r="F92">
-        <v>108.276</v>
+        <v>106.911</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>104.738</v>
+        <v>230.091</v>
       </c>
       <c r="C93">
-        <v>23.878</v>
+        <v>125.288</v>
       </c>
       <c r="D93">
-        <v>37.975</v>
+        <v>58.025</v>
       </c>
       <c r="E93">
-        <v>144.932</v>
+        <v>346.444</v>
       </c>
       <c r="F93">
-        <v>78.80800000000001</v>
+        <v>53.267</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>147.097</v>
+        <v>45.184</v>
       </c>
       <c r="C94">
-        <v>45.568</v>
+        <v>71.91800000000001</v>
       </c>
       <c r="D94">
-        <v>32.988</v>
+        <v>66.923</v>
       </c>
       <c r="E94">
-        <v>37.997</v>
+        <v>209.951</v>
       </c>
       <c r="F94">
-        <v>108.224</v>
+        <v>17.911</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5.102</v>
+        <v>143.06</v>
       </c>
       <c r="C95">
-        <v>55.407</v>
+        <v>107.959</v>
       </c>
       <c r="D95">
-        <v>15.87</v>
+        <v>8.561</v>
       </c>
       <c r="E95">
-        <v>118.507</v>
+        <v>302.176</v>
       </c>
       <c r="F95">
-        <v>34.045</v>
+        <v>27.949</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>81.464</v>
+        <v>114.122</v>
       </c>
       <c r="C96">
-        <v>52.583</v>
+        <v>57.266</v>
       </c>
       <c r="D96">
-        <v>27.9</v>
+        <v>32.983</v>
       </c>
       <c r="E96">
-        <v>84.971</v>
+        <v>367.994</v>
       </c>
       <c r="F96">
-        <v>90.521</v>
+        <v>40.503</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>150.609</v>
+        <v>120.82</v>
       </c>
       <c r="C97">
-        <v>47.273</v>
+        <v>108.781</v>
       </c>
       <c r="D97">
-        <v>62.448</v>
+        <v>42.51</v>
       </c>
       <c r="E97">
-        <v>7.816</v>
+        <v>381.634</v>
       </c>
       <c r="F97">
-        <v>6.744</v>
+        <v>37.216</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>181.519</v>
+        <v>1.793</v>
       </c>
       <c r="C98">
-        <v>27.204</v>
+        <v>85.93600000000001</v>
       </c>
       <c r="D98">
-        <v>71.324</v>
+        <v>69.848</v>
       </c>
       <c r="E98">
-        <v>109.628</v>
+        <v>201.435</v>
       </c>
       <c r="F98">
-        <v>129.253</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>18.402</v>
+        <v>78.197</v>
       </c>
       <c r="C99">
-        <v>31.938</v>
+        <v>14.361</v>
       </c>
       <c r="D99">
-        <v>60.017</v>
+        <v>38.516</v>
       </c>
       <c r="E99">
-        <v>59.673</v>
+        <v>13.35</v>
       </c>
       <c r="F99">
-        <v>106.109</v>
+        <v>104.756</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>42.615</v>
+        <v>178.357</v>
       </c>
       <c r="C100">
-        <v>35.709</v>
+        <v>58.068</v>
       </c>
       <c r="D100">
-        <v>26.398</v>
+        <v>54.908</v>
       </c>
       <c r="E100">
-        <v>133.223</v>
+        <v>295.293</v>
       </c>
       <c r="F100">
-        <v>42.47</v>
+        <v>21.568</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>359.902</v>
+        <v>451.004</v>
       </c>
       <c r="C101">
-        <v>90.104</v>
+        <v>195.318</v>
       </c>
       <c r="D101">
-        <v>84.05200000000001</v>
+        <v>128.979</v>
       </c>
       <c r="E101">
-        <v>63.154</v>
+        <v>733.427</v>
       </c>
       <c r="F101">
-        <v>145.562</v>
+        <v>227.815</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>190.223</v>
+        <v>429.819</v>
       </c>
       <c r="C102">
-        <v>53.641</v>
+        <v>278.96</v>
       </c>
       <c r="D102">
-        <v>81.663</v>
+        <v>123.988</v>
       </c>
       <c r="E102">
-        <v>291.576</v>
+        <v>770.105</v>
       </c>
       <c r="F102">
-        <v>105.711</v>
+        <v>113.872</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>265.88</v>
+        <v>84.66200000000001</v>
       </c>
       <c r="C103">
-        <v>101.975</v>
+        <v>159.925</v>
       </c>
       <c r="D103">
-        <v>70.93300000000001</v>
+        <v>142.993</v>
       </c>
       <c r="E103">
-        <v>76.16200000000001</v>
+        <v>466.692</v>
       </c>
       <c r="F103">
-        <v>145.592</v>
+        <v>38.584</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>9.406000000000001</v>
+        <v>267.235</v>
       </c>
       <c r="C104">
-        <v>124.749</v>
+        <v>240.333</v>
       </c>
       <c r="D104">
-        <v>34.451</v>
+        <v>17.845</v>
       </c>
       <c r="E104">
-        <v>238.461</v>
+        <v>671.385</v>
       </c>
       <c r="F104">
-        <v>45.479</v>
+        <v>59.474</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>147.451</v>
+        <v>212.807</v>
       </c>
       <c r="C105">
-        <v>118.752</v>
+        <v>127.832</v>
       </c>
       <c r="D105">
-        <v>60.298</v>
+        <v>70.057</v>
       </c>
       <c r="E105">
-        <v>171.047</v>
+        <v>817.27</v>
       </c>
       <c r="F105">
-        <v>121.44</v>
+        <v>85.916</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>272.829</v>
+        <v>225.221</v>
       </c>
       <c r="C106">
-        <v>106.986</v>
+        <v>242.251</v>
       </c>
       <c r="D106">
-        <v>134.096</v>
+        <v>90.82899999999999</v>
       </c>
       <c r="E106">
-        <v>15.106</v>
+        <v>848.154</v>
       </c>
       <c r="F106">
-        <v>9.111000000000001</v>
+        <v>79.456</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>328.947</v>
+        <v>3.374</v>
       </c>
       <c r="C107">
-        <v>60.801</v>
+        <v>191.358</v>
       </c>
       <c r="D107">
-        <v>153.081</v>
+        <v>149.247</v>
       </c>
       <c r="E107">
-        <v>219.993</v>
+        <v>447.176</v>
       </c>
       <c r="F107">
-        <v>173.539</v>
+        <v>29.394</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>33.608</v>
+        <v>145.821</v>
       </c>
       <c r="C108">
-        <v>72.378</v>
+        <v>31.796</v>
       </c>
       <c r="D108">
-        <v>129.297</v>
+        <v>82.047</v>
       </c>
       <c r="E108">
-        <v>119.803</v>
+        <v>29.39</v>
       </c>
       <c r="F108">
-        <v>142.524</v>
+        <v>223.8</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>77.345</v>
+        <v>332.894</v>
       </c>
       <c r="C109">
-        <v>80.13</v>
+        <v>129.401</v>
       </c>
       <c r="D109">
-        <v>56.423</v>
+        <v>116.97</v>
       </c>
       <c r="E109">
-        <v>267.542</v>
+        <v>656.208</v>
       </c>
       <c r="F109">
-        <v>57.013</v>
+        <v>46.111</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>360.346</v>
+        <v>451.396</v>
       </c>
       <c r="C110">
-        <v>89.374</v>
+        <v>195.473</v>
       </c>
       <c r="D110">
-        <v>84.126</v>
+        <v>128.958</v>
       </c>
       <c r="E110">
-        <v>62.29</v>
+        <v>733.898</v>
       </c>
       <c r="F110">
-        <v>144.847</v>
+        <v>227.085</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>189.636</v>
+        <v>430.289</v>
       </c>
       <c r="C111">
-        <v>52.754</v>
+        <v>278.635</v>
       </c>
       <c r="D111">
-        <v>81.217</v>
+        <v>123.093</v>
       </c>
       <c r="E111">
-        <v>292.1</v>
+        <v>770.496</v>
       </c>
       <c r="F111">
-        <v>106.167</v>
+        <v>114.13</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>266.591</v>
+        <v>85.51900000000001</v>
       </c>
       <c r="C112">
-        <v>102.161</v>
+        <v>160.434</v>
       </c>
       <c r="D112">
-        <v>70.786</v>
+        <v>143.31</v>
       </c>
       <c r="E112">
-        <v>75.61199999999999</v>
+        <v>466.52</v>
       </c>
       <c r="F112">
-        <v>145.301</v>
+        <v>37.935</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8.619999999999999</v>
+        <v>267.373</v>
       </c>
       <c r="C113">
-        <v>125.4</v>
+        <v>239.706</v>
       </c>
       <c r="D113">
-        <v>33.962</v>
+        <v>18.099</v>
       </c>
       <c r="E113">
-        <v>238.734</v>
+        <v>670.853</v>
       </c>
       <c r="F113">
-        <v>45.961</v>
+        <v>59.648</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>146.792</v>
+        <v>212.819</v>
       </c>
       <c r="C114">
-        <v>119.432</v>
+        <v>128.271</v>
       </c>
       <c r="D114">
-        <v>60.172</v>
+        <v>70.764</v>
       </c>
       <c r="E114">
-        <v>171.592</v>
+        <v>817.779</v>
       </c>
       <c r="F114">
-        <v>120.689</v>
+        <v>85.188</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>273.124</v>
+        <v>225.296</v>
       </c>
       <c r="C115">
-        <v>107.149</v>
+        <v>242.523</v>
       </c>
       <c r="D115">
-        <v>134.106</v>
+        <v>90.383</v>
       </c>
       <c r="E115">
-        <v>15.696</v>
+        <v>848.7089999999999</v>
       </c>
       <c r="F115">
-        <v>8.999000000000001</v>
+        <v>79.268</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>329.594</v>
+        <v>3.032</v>
       </c>
       <c r="C116">
-        <v>61.136</v>
+        <v>190.916</v>
       </c>
       <c r="D116">
-        <v>152.689</v>
+        <v>149.103</v>
       </c>
       <c r="E116">
-        <v>219.362</v>
+        <v>447.483</v>
       </c>
       <c r="F116">
-        <v>172.96</v>
+        <v>29.399</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>34.374</v>
+        <v>145.756</v>
       </c>
       <c r="C117">
-        <v>72.401</v>
+        <v>31.97</v>
       </c>
       <c r="D117">
-        <v>129.041</v>
+        <v>81.997</v>
       </c>
       <c r="E117">
-        <v>118.96</v>
+        <v>29.123</v>
       </c>
       <c r="F117">
-        <v>141.838</v>
+        <v>224.607</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>77.904</v>
+        <v>333.704</v>
       </c>
       <c r="C118">
-        <v>79.78100000000001</v>
+        <v>129.49</v>
       </c>
       <c r="D118">
-        <v>57.083</v>
+        <v>117.277</v>
       </c>
       <c r="E118">
-        <v>267.641</v>
+        <v>655.388</v>
       </c>
       <c r="F118">
-        <v>56.682</v>
+        <v>46.408</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>840.856</v>
+        <v>866.915</v>
       </c>
       <c r="C119">
-        <v>199.709</v>
+        <v>333.539</v>
       </c>
       <c r="D119">
-        <v>144.425</v>
+        <v>237.56</v>
       </c>
       <c r="E119">
-        <v>94.27</v>
+        <v>1416.912</v>
       </c>
       <c r="F119">
-        <v>268.493</v>
+        <v>355.483</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>443.286</v>
+        <v>826.627</v>
       </c>
       <c r="C120">
-        <v>118.094</v>
+        <v>475.484</v>
       </c>
       <c r="D120">
-        <v>139.755</v>
+        <v>227.317</v>
       </c>
       <c r="E120">
-        <v>439.912</v>
+        <v>1487.694</v>
       </c>
       <c r="F120">
-        <v>196.338</v>
+        <v>178.501</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>621.798</v>
+        <v>164.047</v>
       </c>
       <c r="C121">
-        <v>227.495</v>
+        <v>273.297</v>
       </c>
       <c r="D121">
-        <v>121.672</v>
+        <v>263.929</v>
       </c>
       <c r="E121">
-        <v>114.079</v>
+        <v>900.9829999999999</v>
       </c>
       <c r="F121">
-        <v>269.3</v>
+        <v>59.86</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.527</v>
+        <v>513.705</v>
       </c>
       <c r="C122">
-        <v>279.355</v>
+        <v>409.223</v>
       </c>
       <c r="D122">
-        <v>58.745</v>
+        <v>32.991</v>
       </c>
       <c r="E122">
-        <v>359.643</v>
+        <v>1295.635</v>
       </c>
       <c r="F122">
-        <v>84.72</v>
+        <v>93.14100000000001</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>342.941</v>
+        <v>408.73</v>
       </c>
       <c r="C123">
-        <v>266.186</v>
+        <v>218.708</v>
       </c>
       <c r="D123">
-        <v>103.569</v>
+        <v>129.825</v>
       </c>
       <c r="E123">
-        <v>258.354</v>
+        <v>1578.607</v>
       </c>
       <c r="F123">
-        <v>223.546</v>
+        <v>133.412</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>637.562</v>
+        <v>432.625</v>
       </c>
       <c r="C124">
-        <v>239.156</v>
+        <v>413.573</v>
       </c>
       <c r="D124">
-        <v>230.283</v>
+        <v>166.791</v>
       </c>
       <c r="E124">
-        <v>23.048</v>
+        <v>1638.565</v>
       </c>
       <c r="F124">
-        <v>16.625</v>
+        <v>124.124</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>769.329</v>
+        <v>5.967</v>
       </c>
       <c r="C125">
-        <v>135.968</v>
+        <v>325.919</v>
       </c>
       <c r="D125">
-        <v>262.375</v>
+        <v>274.853</v>
       </c>
       <c r="E125">
-        <v>330.604</v>
+        <v>863.693</v>
       </c>
       <c r="F125">
-        <v>320.39</v>
+        <v>46.173</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>80.027</v>
+        <v>279.959</v>
       </c>
       <c r="C126">
-        <v>161.68</v>
+        <v>54.349</v>
       </c>
       <c r="D126">
-        <v>221.923</v>
+        <v>151.009</v>
       </c>
       <c r="E126">
-        <v>179.565</v>
+        <v>56.237</v>
       </c>
       <c r="F126">
-        <v>262.817</v>
+        <v>351.063</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>181.692</v>
+        <v>640.712</v>
       </c>
       <c r="C127">
-        <v>178.022</v>
+        <v>220.883</v>
       </c>
       <c r="D127">
-        <v>97.541</v>
+        <v>215.792</v>
       </c>
       <c r="E127">
-        <v>403.03</v>
+        <v>1265.984</v>
       </c>
       <c r="F127">
-        <v>104.951</v>
+        <v>72.482</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>840.415</v>
+        <v>866.574</v>
       </c>
       <c r="C128">
-        <v>198.884</v>
+        <v>334.286</v>
       </c>
       <c r="D128">
-        <v>144.843</v>
+        <v>237.447</v>
       </c>
       <c r="E128">
-        <v>95.06399999999999</v>
+        <v>1416.34</v>
       </c>
       <c r="F128">
-        <v>268.739</v>
+        <v>355.919</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>443.697</v>
+        <v>827.2329999999999</v>
       </c>
       <c r="C129">
-        <v>118.211</v>
+        <v>474.976</v>
       </c>
       <c r="D129">
-        <v>140.045</v>
+        <v>227.473</v>
       </c>
       <c r="E129">
-        <v>440.538</v>
+        <v>1488.024</v>
       </c>
       <c r="F129">
-        <v>197.074</v>
+        <v>178.224</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>622.558</v>
+        <v>164.287</v>
       </c>
       <c r="C130">
-        <v>227.559</v>
+        <v>273.721</v>
       </c>
       <c r="D130">
-        <v>121.321</v>
+        <v>263.846</v>
       </c>
       <c r="E130">
-        <v>114.88</v>
+        <v>900.6319999999999</v>
       </c>
       <c r="F130">
-        <v>268.539</v>
+        <v>59.793</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>20.825</v>
+        <v>513.102</v>
       </c>
       <c r="C131">
-        <v>279.993</v>
+        <v>409.984</v>
       </c>
       <c r="D131">
-        <v>58.149</v>
+        <v>33.396</v>
       </c>
       <c r="E131">
-        <v>359.3</v>
+        <v>1295.99</v>
       </c>
       <c r="F131">
-        <v>84.035</v>
+        <v>92.578</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>343.491</v>
+        <v>408.586</v>
       </c>
       <c r="C132">
-        <v>266.585</v>
+        <v>219.501</v>
       </c>
       <c r="D132">
-        <v>103.252</v>
+        <v>130.353</v>
       </c>
       <c r="E132">
-        <v>257.554</v>
+        <v>1579.068</v>
       </c>
       <c r="F132">
-        <v>223.519</v>
+        <v>134.215</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>637.628</v>
+        <v>431.906</v>
       </c>
       <c r="C133">
-        <v>239.317</v>
+        <v>413.6</v>
       </c>
       <c r="D133">
-        <v>230.462</v>
+        <v>167.177</v>
       </c>
       <c r="E133">
-        <v>22.939</v>
+        <v>1637.92</v>
       </c>
       <c r="F133">
-        <v>16.272</v>
+        <v>123.437</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>768.624</v>
+        <v>5.761</v>
       </c>
       <c r="C134">
-        <v>136.185</v>
+        <v>325.765</v>
       </c>
       <c r="D134">
-        <v>261.625</v>
+        <v>275.534</v>
       </c>
       <c r="E134">
-        <v>331.012</v>
+        <v>863.621</v>
       </c>
       <c r="F134">
-        <v>319.609</v>
+        <v>46.921</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>80.06100000000001</v>
+        <v>279.891</v>
       </c>
       <c r="C135">
-        <v>162.296</v>
+        <v>54.275</v>
       </c>
       <c r="D135">
-        <v>222.513</v>
+        <v>150.653</v>
       </c>
       <c r="E135">
-        <v>178.819</v>
+        <v>55.604</v>
       </c>
       <c r="F135">
-        <v>262.295</v>
+        <v>350.27</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>181.172</v>
+        <v>641.5</v>
       </c>
       <c r="C136">
-        <v>177.522</v>
+        <v>221.558</v>
       </c>
       <c r="D136">
-        <v>98.19199999999999</v>
+        <v>215.005</v>
       </c>
       <c r="E136">
-        <v>403.436</v>
+        <v>1265.863</v>
       </c>
       <c r="F136">
-        <v>104.799</v>
+        <v>72.06</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1916.745</v>
+        <v>2064.546</v>
       </c>
       <c r="C137">
-        <v>326.12</v>
+        <v>489.063</v>
       </c>
       <c r="D137">
-        <v>214.263</v>
+        <v>489.902</v>
       </c>
       <c r="E137">
-        <v>194.478</v>
+        <v>2405.271</v>
       </c>
       <c r="F137">
-        <v>659.86</v>
+        <v>608.532</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1011.894</v>
+        <v>1970.499</v>
       </c>
       <c r="C138">
-        <v>193.595</v>
+        <v>695.5700000000001</v>
       </c>
       <c r="D138">
-        <v>207.401</v>
+        <v>469.506</v>
       </c>
       <c r="E138">
-        <v>901.0700000000001</v>
+        <v>2526.623</v>
       </c>
       <c r="F138">
-        <v>483.341</v>
+        <v>304.794</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1419.125</v>
+        <v>391.103</v>
       </c>
       <c r="C139">
-        <v>372.232</v>
+        <v>400.267</v>
       </c>
       <c r="D139">
-        <v>179.846</v>
+        <v>544.316</v>
       </c>
       <c r="E139">
-        <v>234.85</v>
+        <v>1529.619</v>
       </c>
       <c r="F139">
-        <v>659.814</v>
+        <v>102.585</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>47.463</v>
+        <v>1222.702</v>
       </c>
       <c r="C140">
-        <v>457.743</v>
+        <v>599.997</v>
       </c>
       <c r="D140">
-        <v>86.59099999999999</v>
+        <v>68.486</v>
       </c>
       <c r="E140">
-        <v>735.25</v>
+        <v>2200.693</v>
       </c>
       <c r="F140">
-        <v>206.304</v>
+        <v>158.38</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>783.141</v>
+        <v>973.3869999999999</v>
       </c>
       <c r="C141">
-        <v>435.995</v>
+        <v>320.91</v>
       </c>
       <c r="D141">
-        <v>153.149</v>
+        <v>268.368</v>
       </c>
       <c r="E141">
-        <v>527.1180000000001</v>
+        <v>2680.962</v>
       </c>
       <c r="F141">
-        <v>548.812</v>
+        <v>229.279</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1454.11</v>
+        <v>1029.183</v>
       </c>
       <c r="C142">
-        <v>391.662</v>
+        <v>605.326</v>
       </c>
       <c r="D142">
-        <v>341.154</v>
+        <v>344.854</v>
       </c>
       <c r="E142">
-        <v>46.516</v>
+        <v>2781.554</v>
       </c>
       <c r="F142">
-        <v>39.916</v>
+        <v>211.371</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1753.279</v>
+        <v>13.835</v>
       </c>
       <c r="C143">
-        <v>222.589</v>
+        <v>477.053</v>
       </c>
       <c r="D143">
-        <v>387.789</v>
+        <v>568.218</v>
       </c>
       <c r="E143">
-        <v>677.211</v>
+        <v>1466.361</v>
       </c>
       <c r="F143">
-        <v>785.1799999999999</v>
+        <v>80.069</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>182.443</v>
+        <v>666.772</v>
       </c>
       <c r="C144">
-        <v>265.366</v>
+        <v>79.364</v>
       </c>
       <c r="D144">
-        <v>329.409</v>
+        <v>310.921</v>
       </c>
       <c r="E144">
-        <v>366.324</v>
+        <v>94.71599999999999</v>
       </c>
       <c r="F144">
-        <v>644.331</v>
+        <v>598.9690000000001</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>413.377</v>
+        <v>1527.719</v>
       </c>
       <c r="C145">
-        <v>290.848</v>
+        <v>324.025</v>
       </c>
       <c r="D145">
-        <v>144.832</v>
+        <v>443.773</v>
       </c>
       <c r="E145">
-        <v>825.203</v>
+        <v>2149.873</v>
       </c>
       <c r="F145">
-        <v>257.259</v>
+        <v>123.282</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1916.822</v>
+        <v>2064.209</v>
       </c>
       <c r="C146">
-        <v>326.403</v>
+        <v>489.436</v>
       </c>
       <c r="D146">
-        <v>213.827</v>
+        <v>489.709</v>
       </c>
       <c r="E146">
-        <v>194.393</v>
+        <v>2405.098</v>
       </c>
       <c r="F146">
-        <v>660.242</v>
+        <v>607.838</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1011.276</v>
+        <v>1970.041</v>
       </c>
       <c r="C147">
-        <v>193.47</v>
+        <v>695.582</v>
       </c>
       <c r="D147">
-        <v>207.575</v>
+        <v>468.908</v>
       </c>
       <c r="E147">
-        <v>901.048</v>
+        <v>2526.322</v>
       </c>
       <c r="F147">
-        <v>482.997</v>
+        <v>305.231</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1418.485</v>
+        <v>390.488</v>
       </c>
       <c r="C148">
-        <v>372.069</v>
+        <v>400.781</v>
       </c>
       <c r="D148">
-        <v>179.515</v>
+        <v>543.787</v>
       </c>
       <c r="E148">
-        <v>235.529</v>
+        <v>1529.311</v>
       </c>
       <c r="F148">
-        <v>659.3819999999999</v>
+        <v>102.279</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>47.667</v>
+        <v>1222.395</v>
       </c>
       <c r="C149">
-        <v>457.15</v>
+        <v>600.586</v>
       </c>
       <c r="D149">
-        <v>86.476</v>
+        <v>68.081</v>
       </c>
       <c r="E149">
-        <v>735.578</v>
+        <v>2201.019</v>
       </c>
       <c r="F149">
-        <v>206.54</v>
+        <v>158.384</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>782.7329999999999</v>
+        <v>972.923</v>
       </c>
       <c r="C150">
-        <v>436.54</v>
+        <v>321.361</v>
       </c>
       <c r="D150">
-        <v>152.422</v>
+        <v>267.977</v>
       </c>
       <c r="E150">
-        <v>527.746</v>
+        <v>2681.105</v>
       </c>
       <c r="F150">
-        <v>548.864</v>
+        <v>228.925</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1453.941</v>
+        <v>1029.067</v>
       </c>
       <c r="C151">
-        <v>391.711</v>
+        <v>605.635</v>
       </c>
       <c r="D151">
-        <v>340.53</v>
+        <v>344.881</v>
       </c>
       <c r="E151">
-        <v>46.677</v>
+        <v>2781.725</v>
       </c>
       <c r="F151">
-        <v>39.551</v>
+        <v>211.148</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1753.097</v>
+        <v>14.217</v>
       </c>
       <c r="C152">
-        <v>222.938</v>
+        <v>476.323</v>
       </c>
       <c r="D152">
-        <v>387.499</v>
+        <v>567.97</v>
       </c>
       <c r="E152">
-        <v>677.332</v>
+        <v>1465.815</v>
       </c>
       <c r="F152">
-        <v>784.455</v>
+        <v>80.35299999999999</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>183.016</v>
+        <v>666.809</v>
       </c>
       <c r="C153">
-        <v>264.748</v>
+        <v>79.333</v>
       </c>
       <c r="D153">
-        <v>328.796</v>
+        <v>311.475</v>
       </c>
       <c r="E153">
-        <v>366.381</v>
+        <v>94.521</v>
       </c>
       <c r="F153">
-        <v>643.617</v>
+        <v>599.36</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>413.405</v>
+        <v>1527.205</v>
       </c>
       <c r="C154">
-        <v>290.203</v>
+        <v>323.84</v>
       </c>
       <c r="D154">
-        <v>145.329</v>
+        <v>444.411</v>
       </c>
       <c r="E154">
-        <v>825.546</v>
+        <v>2150.325</v>
       </c>
       <c r="F154">
-        <v>256.57</v>
+        <v>122.7</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>4239.055</v>
+        <v>3567.674</v>
       </c>
       <c r="C155">
-        <v>600.499</v>
+        <v>871.768</v>
       </c>
       <c r="D155">
-        <v>408.509</v>
+        <v>1172.071</v>
       </c>
       <c r="E155">
-        <v>361.231</v>
+        <v>4762.497</v>
       </c>
       <c r="F155">
-        <v>1282.381</v>
+        <v>929.136</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2236.771</v>
+        <v>3404.863</v>
       </c>
       <c r="C156">
-        <v>355.894</v>
+        <v>1239.589</v>
       </c>
       <c r="D156">
-        <v>396.529</v>
+        <v>1122.584</v>
       </c>
       <c r="E156">
-        <v>1674.213</v>
+        <v>5002.365</v>
       </c>
       <c r="F156">
-        <v>938.246</v>
+        <v>466.292</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>3137.036</v>
+        <v>675.086</v>
       </c>
       <c r="C157">
-        <v>684.152</v>
+        <v>713.657</v>
       </c>
       <c r="D157">
-        <v>343.195</v>
+        <v>1301.644</v>
       </c>
       <c r="E157">
-        <v>437.197</v>
+        <v>3028.443</v>
       </c>
       <c r="F157">
-        <v>1281.374</v>
+        <v>156.628</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>105.257</v>
+        <v>2112.899</v>
       </c>
       <c r="C158">
-        <v>840.596</v>
+        <v>1069.838</v>
       </c>
       <c r="D158">
-        <v>165.552</v>
+        <v>162.888</v>
       </c>
       <c r="E158">
-        <v>1366.743</v>
+        <v>4358.069</v>
       </c>
       <c r="F158">
-        <v>401.032</v>
+        <v>242.083</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1731.128</v>
+        <v>1681.706</v>
       </c>
       <c r="C159">
-        <v>802.372</v>
+        <v>572.17</v>
       </c>
       <c r="D159">
-        <v>291.597</v>
+        <v>641.218</v>
       </c>
       <c r="E159">
-        <v>980.408</v>
+        <v>5308.515</v>
       </c>
       <c r="F159">
-        <v>1066.193</v>
+        <v>349.857</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>3215.453</v>
+        <v>1778.636</v>
       </c>
       <c r="C160">
-        <v>720.3049999999999</v>
+        <v>1078.948</v>
       </c>
       <c r="D160">
-        <v>650.732</v>
+        <v>825.306</v>
       </c>
       <c r="E160">
-        <v>86.42100000000001</v>
+        <v>5508.128</v>
       </c>
       <c r="F160">
-        <v>76.971</v>
+        <v>322.941</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3877.234</v>
+        <v>24.385</v>
       </c>
       <c r="C161">
-        <v>409.643</v>
+        <v>849.068</v>
       </c>
       <c r="D161">
-        <v>740.696</v>
+        <v>1359.274</v>
       </c>
       <c r="E161">
-        <v>1258.535</v>
+        <v>2902.571</v>
       </c>
       <c r="F161">
-        <v>1524.519</v>
+        <v>122.581</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>404.327</v>
+        <v>1152.367</v>
       </c>
       <c r="C162">
-        <v>486.933</v>
+        <v>141.279</v>
       </c>
       <c r="D162">
-        <v>628.325</v>
+        <v>745.16</v>
       </c>
       <c r="E162">
-        <v>680.99</v>
+        <v>187.382</v>
       </c>
       <c r="F162">
-        <v>1250.852</v>
+        <v>915.7859999999999</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>914.292</v>
+        <v>2639.44</v>
       </c>
       <c r="C163">
-        <v>534.099</v>
+        <v>576.86</v>
       </c>
       <c r="D163">
-        <v>277.091</v>
+        <v>1063.314</v>
       </c>
       <c r="E163">
-        <v>1533.747</v>
+        <v>4257.837</v>
       </c>
       <c r="F163">
-        <v>498.763</v>
+        <v>187.787</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>4238.87</v>
+        <v>3567.5</v>
       </c>
       <c r="C164">
-        <v>601.157</v>
+        <v>871.694</v>
       </c>
       <c r="D164">
-        <v>408.338</v>
+        <v>1172.313</v>
       </c>
       <c r="E164">
-        <v>360.618</v>
+        <v>4762.787</v>
       </c>
       <c r="F164">
-        <v>1282.314</v>
+        <v>929.261</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2236.353</v>
+        <v>3404.334</v>
       </c>
       <c r="C165">
-        <v>356.086</v>
+        <v>1239.265</v>
       </c>
       <c r="D165">
-        <v>396.005</v>
+        <v>1122.294</v>
       </c>
       <c r="E165">
-        <v>1673.547</v>
+        <v>5002.321</v>
       </c>
       <c r="F165">
-        <v>938.318</v>
+        <v>466.127</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>3136.384</v>
+        <v>675.355</v>
       </c>
       <c r="C166">
-        <v>684.304</v>
+        <v>713.107</v>
       </c>
       <c r="D166">
-        <v>343.134</v>
+        <v>1301.097</v>
       </c>
       <c r="E166">
-        <v>437.253</v>
+        <v>3028.688</v>
       </c>
       <c r="F166">
-        <v>1280.9</v>
+        <v>157.243</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>105.158</v>
+        <v>2113.073</v>
       </c>
       <c r="C167">
-        <v>840.967</v>
+        <v>1070.227</v>
       </c>
       <c r="D167">
-        <v>165.686</v>
+        <v>162.385</v>
       </c>
       <c r="E167">
-        <v>1367.261</v>
+        <v>4358.649</v>
       </c>
       <c r="F167">
-        <v>401.338</v>
+        <v>242.513</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1730.831</v>
+        <v>1682.234</v>
       </c>
       <c r="C168">
-        <v>802.522</v>
+        <v>572.254</v>
       </c>
       <c r="D168">
-        <v>291.959</v>
+        <v>640.968</v>
       </c>
       <c r="E168">
-        <v>979.932</v>
+        <v>5308.005</v>
       </c>
       <c r="F168">
-        <v>1066.842</v>
+        <v>350.273</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3215.002</v>
+        <v>1778.93</v>
       </c>
       <c r="C169">
-        <v>720.843</v>
+        <v>1078.525</v>
       </c>
       <c r="D169">
-        <v>650.515</v>
+        <v>824.785</v>
       </c>
       <c r="E169">
-        <v>86.592</v>
+        <v>5508.466</v>
       </c>
       <c r="F169">
-        <v>77.599</v>
+        <v>323.522</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>3877.107</v>
+        <v>23.84</v>
       </c>
       <c r="C170">
-        <v>410.173</v>
+        <v>849.434</v>
       </c>
       <c r="D170">
-        <v>741.356</v>
+        <v>1359.358</v>
       </c>
       <c r="E170">
-        <v>1258.437</v>
+        <v>2903.045</v>
       </c>
       <c r="F170">
-        <v>1525.07</v>
+        <v>122.384</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>404.018</v>
+        <v>1151.861</v>
       </c>
       <c r="C171">
-        <v>486.351</v>
+        <v>141.835</v>
       </c>
       <c r="D171">
-        <v>628.331</v>
+        <v>745.803</v>
       </c>
       <c r="E171">
-        <v>680.629</v>
+        <v>187.558</v>
       </c>
       <c r="F171">
-        <v>1250.722</v>
+        <v>915.28</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>914.759</v>
+        <v>2640.004</v>
       </c>
       <c r="C172">
-        <v>534.265</v>
+        <v>576.891</v>
       </c>
       <c r="D172">
-        <v>277.329</v>
+        <v>1063.652</v>
       </c>
       <c r="E172">
-        <v>1533.253</v>
+        <v>4257.698</v>
       </c>
       <c r="F172">
-        <v>498.094</v>
+        <v>187.733</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>8116.751</v>
+        <v>7635.947</v>
       </c>
       <c r="C173">
-        <v>1087.445</v>
+        <v>1708.142</v>
       </c>
       <c r="D173">
-        <v>711.211</v>
+        <v>2015.273</v>
       </c>
       <c r="E173">
-        <v>863.831</v>
+        <v>8587.107</v>
       </c>
       <c r="F173">
-        <v>3180.166</v>
+        <v>1489.378</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>4282.572</v>
+        <v>7286.822</v>
       </c>
       <c r="C174">
-        <v>644.192</v>
+        <v>2428.892</v>
       </c>
       <c r="D174">
-        <v>689.8819999999999</v>
+        <v>1929.715</v>
       </c>
       <c r="E174">
-        <v>4008.05</v>
+        <v>9019.061</v>
       </c>
       <c r="F174">
-        <v>2327.004</v>
+        <v>746.982</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6005.97</v>
+        <v>1445.483</v>
       </c>
       <c r="C175">
-        <v>1237.93</v>
+        <v>1397.475</v>
       </c>
       <c r="D175">
-        <v>597.726</v>
+        <v>2237.195</v>
       </c>
       <c r="E175">
-        <v>1046.797</v>
+        <v>5460.638</v>
       </c>
       <c r="F175">
-        <v>3177.198</v>
+        <v>252.003</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>201.323</v>
+        <v>4522.826</v>
       </c>
       <c r="C176">
-        <v>1521.258</v>
+        <v>2097.03</v>
       </c>
       <c r="D176">
-        <v>288.65</v>
+        <v>279.43</v>
       </c>
       <c r="E176">
-        <v>3273.999</v>
+        <v>7858.145</v>
       </c>
       <c r="F176">
-        <v>994.972</v>
+        <v>388.537</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3314.423</v>
+        <v>3600.493</v>
       </c>
       <c r="C177">
-        <v>1451.628</v>
+        <v>1121.17</v>
       </c>
       <c r="D177">
-        <v>508.485</v>
+        <v>1102.013</v>
       </c>
       <c r="E177">
-        <v>2346.789</v>
+        <v>9570.263000000001</v>
       </c>
       <c r="F177">
-        <v>2645.49</v>
+        <v>561.224</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6156.402</v>
+        <v>3807.499</v>
       </c>
       <c r="C178">
-        <v>1303.878</v>
+        <v>2113.713</v>
       </c>
       <c r="D178">
-        <v>1133.085</v>
+        <v>1418.197</v>
       </c>
       <c r="E178">
-        <v>207.045</v>
+        <v>9931.459000000001</v>
       </c>
       <c r="F178">
-        <v>192.041</v>
+        <v>518.4589999999999</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7424.125</v>
+        <v>51.099</v>
       </c>
       <c r="C179">
-        <v>741.652</v>
+        <v>1664.697</v>
       </c>
       <c r="D179">
-        <v>1290.994</v>
+        <v>2336.885</v>
       </c>
       <c r="E179">
-        <v>3013.681</v>
+        <v>5233.921</v>
       </c>
       <c r="F179">
-        <v>3782.39</v>
+        <v>196.064</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>773.586</v>
+        <v>2465.557</v>
       </c>
       <c r="C180">
-        <v>880.201</v>
+        <v>277.64</v>
       </c>
       <c r="D180">
-        <v>1094.349</v>
+        <v>1281.654</v>
       </c>
       <c r="E180">
-        <v>1630.184</v>
+        <v>338.169</v>
       </c>
       <c r="F180">
-        <v>3102.236</v>
+        <v>1466.932</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1751.345</v>
+        <v>5650.352</v>
       </c>
       <c r="C181">
-        <v>966.74</v>
+        <v>1130.434</v>
       </c>
       <c r="D181">
-        <v>482.565</v>
+        <v>1828.266</v>
       </c>
       <c r="E181">
-        <v>3671.898</v>
+        <v>7676.563</v>
       </c>
       <c r="F181">
-        <v>1235.701</v>
+        <v>301.067</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>8117.287</v>
+        <v>7635.75</v>
       </c>
       <c r="C182">
-        <v>1088.041</v>
+        <v>1708.384</v>
       </c>
       <c r="D182">
-        <v>710.9160000000001</v>
+        <v>2014.784</v>
       </c>
       <c r="E182">
-        <v>864.071</v>
+        <v>8586.607</v>
       </c>
       <c r="F182">
-        <v>3179.772</v>
+        <v>1489.824</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>4282.617</v>
+        <v>7287.325</v>
       </c>
       <c r="C183">
-        <v>644.505</v>
+        <v>2428.344</v>
       </c>
       <c r="D183">
-        <v>689.888</v>
+        <v>1929.651</v>
       </c>
       <c r="E183">
-        <v>4008.595</v>
+        <v>9019.111000000001</v>
       </c>
       <c r="F183">
-        <v>2327.006</v>
+        <v>747.263</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6006.173</v>
+        <v>1445.494</v>
       </c>
       <c r="C184">
-        <v>1238.051</v>
+        <v>1397.793</v>
       </c>
       <c r="D184">
-        <v>597.2910000000001</v>
+        <v>2237.027</v>
       </c>
       <c r="E184">
-        <v>1046.736</v>
+        <v>5460.79</v>
       </c>
       <c r="F184">
-        <v>3176.684</v>
+        <v>252.448</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>200.779</v>
+        <v>4523.041</v>
       </c>
       <c r="C185">
-        <v>1520.758</v>
+        <v>2097.539</v>
       </c>
       <c r="D185">
-        <v>288.544</v>
+        <v>279.466</v>
       </c>
       <c r="E185">
-        <v>3274.267</v>
+        <v>7857.573</v>
       </c>
       <c r="F185">
-        <v>995.504</v>
+        <v>388.039</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>3314.715</v>
+        <v>3600.338</v>
       </c>
       <c r="C186">
-        <v>1452.122</v>
+        <v>1120.735</v>
       </c>
       <c r="D186">
-        <v>508.034</v>
+        <v>1101.661</v>
       </c>
       <c r="E186">
-        <v>2347.179</v>
+        <v>9569.894</v>
       </c>
       <c r="F186">
-        <v>2645.407</v>
+        <v>561.518</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6156.965</v>
+        <v>3807.862</v>
       </c>
       <c r="C187">
-        <v>1303.771</v>
+        <v>2114.12</v>
       </c>
       <c r="D187">
-        <v>1133.196</v>
+        <v>1418.452</v>
       </c>
       <c r="E187">
-        <v>207.023</v>
+        <v>9931.248</v>
       </c>
       <c r="F187">
-        <v>191.566</v>
+        <v>517.962</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7423.898</v>
+        <v>50.722</v>
       </c>
       <c r="C188">
-        <v>741.21</v>
+        <v>1664.184</v>
       </c>
       <c r="D188">
-        <v>1291.547</v>
+        <v>2336.914</v>
       </c>
       <c r="E188">
-        <v>3013.774</v>
+        <v>5234.01</v>
       </c>
       <c r="F188">
-        <v>3781.825</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>773.847</v>
+        <v>2465.001</v>
       </c>
       <c r="C189">
-        <v>879.942</v>
+        <v>277.256</v>
       </c>
       <c r="D189">
-        <v>1094.503</v>
+        <v>1281.481</v>
       </c>
       <c r="E189">
-        <v>1630.155</v>
+        <v>337.788</v>
       </c>
       <c r="F189">
-        <v>3101.995</v>
+        <v>1466.86</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1750.945</v>
+        <v>5650.804</v>
       </c>
       <c r="C190">
-        <v>967.1</v>
+        <v>1130.33</v>
       </c>
       <c r="D190">
-        <v>482.363</v>
+        <v>1828.776</v>
       </c>
       <c r="E190">
-        <v>3672.382</v>
+        <v>7677.135</v>
       </c>
       <c r="F190">
-        <v>1235.31</v>
+        <v>300.569</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0006974617036431784</v>
+        <v>0.003428372401138209</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0009572104842164307</v>
+        <v>0.001742120621579409</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008481238225092587</v>
+        <v>0.001509792350728968</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007033758779095622</v>
+        <v>0.001722491337635684</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.006407420562372386</v>
+        <v>0.003126035122888934</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005180637744426771</v>
+        <v>0.002772716241660695</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003347759559534556</v>
+        <v>0.002103237910093765</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.002115781238686643</v>
+        <v>0.00163035395408228</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0009821193809059973</v>
+        <v>0.00280150489102762</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0006974617036431784</v>
+        <v>0.003428372401138209</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0009572104842164307</v>
+        <v>0.001742120621579409</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008481238225092587</v>
+        <v>0.001509792350728968</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007033758779095622</v>
+        <v>0.001722491337635684</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.006407420562372386</v>
+        <v>0.003126035122888934</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005180637744426771</v>
+        <v>0.002772716241660695</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003347759559534556</v>
+        <v>0.002103237910093765</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.002115781238686643</v>
+        <v>0.00163035395408228</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0009821193809059973</v>
+        <v>0.00280150489102762</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4248150313931694</v>
+        <v>0.5874274477003635</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4133546712986902</v>
+        <v>0.4582812642581854</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7670998468743686</v>
+        <v>0.5007613710138411</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6783946697545088</v>
+        <v>0.5088241650722459</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4363879696300154</v>
+        <v>0.5919105741582474</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6292348536853229</v>
+        <v>0.4966455471690217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6619536767230622</v>
+        <v>0.6106442649423687</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4478861405877366</v>
+        <v>0.4148018249918676</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4337387078324915</v>
+        <v>0.6653170512920773</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4248150313931694</v>
+        <v>0.5874274477003635</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4133546712986902</v>
+        <v>0.4582812642581854</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7670998468743686</v>
+        <v>0.5007613710138411</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6783946697545088</v>
+        <v>0.5088241650722459</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4363879696300154</v>
+        <v>0.5919105741582474</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6292348536853229</v>
+        <v>0.4966455471690217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6619536767230622</v>
+        <v>0.6106442649423687</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4478861405877366</v>
+        <v>0.4148018249918676</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4337387078324915</v>
+        <v>0.6653170512920773</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.317</v>
+        <v>0.781</v>
       </c>
       <c r="C3">
-        <v>0.255</v>
+        <v>0.857</v>
       </c>
       <c r="D3">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="E3">
-        <v>0.71</v>
+        <v>0.518</v>
       </c>
       <c r="F3">
-        <v>0.908</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.877</v>
+        <v>0.239</v>
       </c>
       <c r="C4">
-        <v>0.017</v>
+        <v>0.584</v>
       </c>
       <c r="D4">
-        <v>0.395</v>
+        <v>0.126</v>
       </c>
       <c r="E4">
-        <v>0.526</v>
+        <v>0.462</v>
       </c>
       <c r="F4">
-        <v>0.492</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.774</v>
+        <v>0.979</v>
       </c>
       <c r="C5">
-        <v>0.469</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0.732</v>
+        <v>0.41</v>
       </c>
       <c r="E5">
-        <v>0.744</v>
+        <v>0.848</v>
       </c>
       <c r="F5">
-        <v>0.629</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.121</v>
+        <v>0.172</v>
       </c>
       <c r="C6">
-        <v>0.957</v>
+        <v>0.433</v>
       </c>
       <c r="D6">
-        <v>0.024</v>
+        <v>0.336</v>
       </c>
       <c r="E6">
-        <v>0.082</v>
+        <v>0.241</v>
       </c>
       <c r="F6">
-        <v>0.132</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.598</v>
+        <v>0.344</v>
       </c>
       <c r="C7">
-        <v>0.438</v>
+        <v>0.003</v>
       </c>
       <c r="D7">
-        <v>0.008999999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="E7">
-        <v>0.953</v>
+        <v>0.706</v>
       </c>
       <c r="F7">
-        <v>0.067</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.309</v>
+        <v>0.447</v>
       </c>
       <c r="C8">
-        <v>0.747</v>
+        <v>0.913</v>
       </c>
       <c r="D8">
-        <v>0.88</v>
+        <v>0.777</v>
       </c>
       <c r="E8">
-        <v>0.437</v>
+        <v>0.695</v>
       </c>
       <c r="F8">
-        <v>0.024</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.887</v>
+        <v>0.457</v>
       </c>
       <c r="C9">
-        <v>0.675</v>
+        <v>0.155</v>
       </c>
       <c r="D9">
-        <v>0.183</v>
+        <v>0.311</v>
       </c>
       <c r="E9">
-        <v>0.004</v>
+        <v>0.381</v>
       </c>
       <c r="F9">
-        <v>0.597</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.709</v>
+        <v>0.903</v>
       </c>
       <c r="C10">
-        <v>0.08500000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="D10">
-        <v>0.063</v>
+        <v>0.606</v>
       </c>
       <c r="E10">
-        <v>0.71</v>
+        <v>0.216</v>
       </c>
       <c r="F10">
-        <v>0.996</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.148</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>0.465</v>
       </c>
       <c r="D11">
-        <v>0.586</v>
+        <v>0.878</v>
       </c>
       <c r="E11">
-        <v>0.347</v>
+        <v>0.569</v>
       </c>
       <c r="F11">
-        <v>0.35</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.367</v>
+        <v>0.719</v>
       </c>
       <c r="C12">
-        <v>0.353</v>
+        <v>0.521</v>
       </c>
       <c r="D12">
-        <v>0.265</v>
+        <v>0.137</v>
       </c>
       <c r="E12">
-        <v>0.9330000000000001</v>
+        <v>0.308</v>
       </c>
       <c r="F12">
-        <v>0.995</v>
+        <v>0.257</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4274148394211734</v>
+        <v>0.1584185883127284</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5786713512066977</v>
+        <v>0.1376320905247639</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3356199276039497</v>
+        <v>0.1132211696151409</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7843650504105839</v>
+        <v>0.90370783419483</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4541144742623427</v>
+        <v>0.1012626942042442</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3044174862939283</v>
+        <v>0.9373032309305651</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7884726201972829</v>
+        <v>0.8194781286939489</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9645501131885872</v>
+        <v>0.1153009407306999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5644038978351582</v>
+        <v>0.1925913969257813</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5080,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.771</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C2">
-        <v>0.526</v>
+        <v>0.705</v>
       </c>
       <c r="D2">
-        <v>0.487</v>
+        <v>0.762</v>
       </c>
       <c r="E2">
-        <v>0.081</v>
+        <v>0.834</v>
       </c>
       <c r="F2">
-        <v>0.479</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.425</v>
+        <v>0.888</v>
       </c>
       <c r="C3">
-        <v>0.315</v>
+        <v>0.968</v>
       </c>
       <c r="D3">
-        <v>0.478</v>
+        <v>0.74</v>
       </c>
       <c r="E3">
-        <v>0.5580000000000001</v>
+        <v>0.884</v>
       </c>
       <c r="F3">
-        <v>0.462</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5659999999999999</v>
+        <v>0.199</v>
       </c>
       <c r="C4">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D4">
-        <v>0.416</v>
+        <v>0.853</v>
       </c>
       <c r="E4">
-        <v>0.12</v>
+        <v>0.532</v>
       </c>
       <c r="F4">
-        <v>0.732</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.037</v>
+        <v>0.553</v>
       </c>
       <c r="C5">
-        <v>0.707</v>
+        <v>0.824</v>
       </c>
       <c r="D5">
-        <v>0.218</v>
+        <v>0.096</v>
       </c>
       <c r="E5">
-        <v>0.482</v>
+        <v>0.79</v>
       </c>
       <c r="F5">
-        <v>0.223</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.314</v>
+        <v>0.437</v>
       </c>
       <c r="C6">
-        <v>0.6820000000000001</v>
+        <v>0.452</v>
       </c>
       <c r="D6">
-        <v>0.365</v>
+        <v>0.406</v>
       </c>
       <c r="E6">
-        <v>0.307</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F6">
-        <v>0.625</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.58</v>
+        <v>0.456</v>
       </c>
       <c r="C7">
-        <v>0.615</v>
+        <v>0.819</v>
       </c>
       <c r="D7">
-        <v>0.776</v>
+        <v>0.543</v>
       </c>
       <c r="E7">
-        <v>0.017</v>
+        <v>0.999</v>
       </c>
       <c r="F7">
-        <v>0.045</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6860000000000001</v>
+        <v>0.012</v>
       </c>
       <c r="C8">
-        <v>0.329</v>
+        <v>0.644</v>
       </c>
       <c r="D8">
-        <v>0.882</v>
+        <v>0.891</v>
       </c>
       <c r="E8">
-        <v>0.453</v>
+        <v>0.536</v>
       </c>
       <c r="F8">
-        <v>0.9</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.073</v>
+        <v>0.288</v>
       </c>
       <c r="C9">
-        <v>0.418</v>
+        <v>0.103</v>
       </c>
       <c r="D9">
-        <v>0.765</v>
+        <v>0.483</v>
       </c>
       <c r="E9">
-        <v>0.263</v>
+        <v>0.057</v>
       </c>
       <c r="F9">
-        <v>0.741</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.156</v>
+        <v>0.654</v>
       </c>
       <c r="C10">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="D10">
-        <v>0.317</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="E10">
-        <v>0.545</v>
+        <v>0.78</v>
       </c>
       <c r="F10">
-        <v>0.299</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.76</v>
+        <v>0.906</v>
       </c>
       <c r="C11">
-        <v>0.517</v>
+        <v>0.674</v>
       </c>
       <c r="D11">
-        <v>0.487</v>
+        <v>0.762</v>
       </c>
       <c r="E11">
-        <v>0.107</v>
+        <v>0.853</v>
       </c>
       <c r="F11">
-        <v>0.652</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.415</v>
+        <v>0.865</v>
       </c>
       <c r="C12">
-        <v>0.307</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D12">
-        <v>0.478</v>
+        <v>0.74</v>
       </c>
       <c r="E12">
-        <v>0.579</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
-        <v>0.515</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5580000000000001</v>
+        <v>0.179</v>
       </c>
       <c r="C13">
-        <v>0.549</v>
+        <v>0.538</v>
       </c>
       <c r="D13">
-        <v>0.416</v>
+        <v>0.853</v>
       </c>
       <c r="E13">
-        <v>0.138</v>
+        <v>0.545</v>
       </c>
       <c r="F13">
-        <v>0.752</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03</v>
+        <v>0.537</v>
       </c>
       <c r="C14">
-        <v>0.702</v>
+        <v>0.806</v>
       </c>
       <c r="D14">
-        <v>0.218</v>
+        <v>0.096</v>
       </c>
       <c r="E14">
-        <v>0.487</v>
+        <v>0.794</v>
       </c>
       <c r="F14">
-        <v>0.229</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.309</v>
+        <v>0.424</v>
       </c>
       <c r="C15">
-        <v>0.678</v>
+        <v>0.437</v>
       </c>
       <c r="D15">
-        <v>0.365</v>
+        <v>0.406</v>
       </c>
       <c r="E15">
-        <v>0.331</v>
+        <v>0.951</v>
       </c>
       <c r="F15">
-        <v>0.629</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.576</v>
+        <v>0.446</v>
       </c>
       <c r="C16">
-        <v>0.612</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="D16">
-        <v>0.776</v>
+        <v>0.543</v>
       </c>
       <c r="E16">
-        <v>0.022</v>
+        <v>1.003</v>
       </c>
       <c r="F16">
-        <v>0.048</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6830000000000001</v>
+        <v>0.006</v>
       </c>
       <c r="C17">
-        <v>0.327</v>
+        <v>0.637</v>
       </c>
       <c r="D17">
-        <v>0.882</v>
+        <v>0.891</v>
       </c>
       <c r="E17">
-        <v>0.45</v>
+        <v>0.534</v>
       </c>
       <c r="F17">
-        <v>0.902</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.07199999999999999</v>
+        <v>0.285</v>
       </c>
       <c r="C18">
-        <v>0.417</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>0.765</v>
+        <v>0.483</v>
       </c>
       <c r="E18">
-        <v>0.252</v>
+        <v>0.049</v>
       </c>
       <c r="F18">
-        <v>0.743</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.156</v>
+        <v>0.654</v>
       </c>
       <c r="C19">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="D19">
-        <v>0.317</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="E19">
-        <v>0.545</v>
+        <v>0.78</v>
       </c>
       <c r="F19">
-        <v>0.299</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.99</v>
+        <v>1.586</v>
       </c>
       <c r="C20">
-        <v>0.64</v>
+        <v>1.221</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="E20">
-        <v>0.209</v>
+        <v>1.314</v>
       </c>
       <c r="F20">
-        <v>1.417</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.537</v>
+        <v>1.517</v>
       </c>
       <c r="C21">
-        <v>0.377</v>
+        <v>1.721</v>
       </c>
       <c r="D21">
-        <v>0.491</v>
+        <v>0.757</v>
       </c>
       <c r="E21">
-        <v>1.011</v>
+        <v>1.382</v>
       </c>
       <c r="F21">
-        <v>1.035</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.727</v>
+        <v>0.298</v>
       </c>
       <c r="C22">
-        <v>0.6820000000000001</v>
+        <v>0.977</v>
       </c>
       <c r="D22">
-        <v>0.427</v>
+        <v>0.873</v>
       </c>
       <c r="E22">
-        <v>0.254</v>
+        <v>0.84</v>
       </c>
       <c r="F22">
-        <v>1.455</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.033</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C23">
-        <v>0.876</v>
+        <v>1.479</v>
       </c>
       <c r="D23">
-        <v>0.224</v>
+        <v>0.098</v>
       </c>
       <c r="E23">
-        <v>0.838</v>
+        <v>1.209</v>
       </c>
       <c r="F23">
-        <v>0.443</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.402</v>
+        <v>0.742</v>
       </c>
       <c r="C24">
-        <v>0.847</v>
+        <v>0.797</v>
       </c>
       <c r="D24">
-        <v>0.375</v>
+        <v>0.415</v>
       </c>
       <c r="E24">
-        <v>0.59</v>
+        <v>1.461</v>
       </c>
       <c r="F24">
-        <v>1.204</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.754</v>
+        <v>0.784</v>
       </c>
       <c r="C25">
-        <v>0.765</v>
+        <v>1.492</v>
       </c>
       <c r="D25">
-        <v>0.797</v>
+        <v>0.555</v>
       </c>
       <c r="E25">
-        <v>0.043</v>
+        <v>1.526</v>
       </c>
       <c r="F25">
-        <v>0.094</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.897</v>
+        <v>0.004</v>
       </c>
       <c r="C26">
-        <v>0.408</v>
+        <v>1.176</v>
       </c>
       <c r="D26">
-        <v>0.906</v>
+        <v>0.911</v>
       </c>
       <c r="E26">
-        <v>0.767</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="F26">
-        <v>1.723</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.094</v>
+        <v>0.504</v>
       </c>
       <c r="C27">
-        <v>0.522</v>
+        <v>0.182</v>
       </c>
       <c r="D27">
-        <v>0.786</v>
+        <v>0.494</v>
       </c>
       <c r="E27">
-        <v>0.42</v>
+        <v>0.066</v>
       </c>
       <c r="F27">
-        <v>1.419</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.205</v>
+        <v>1.165</v>
       </c>
       <c r="C28">
-        <v>0.535</v>
+        <v>0.795</v>
       </c>
       <c r="D28">
-        <v>0.326</v>
+        <v>0.704</v>
       </c>
       <c r="E28">
-        <v>0.9320000000000001</v>
+        <v>1.184</v>
       </c>
       <c r="F28">
-        <v>0.57</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.501</v>
+        <v>2.18</v>
       </c>
       <c r="C29">
-        <v>0.659</v>
+        <v>2.325</v>
       </c>
       <c r="D29">
-        <v>0.891</v>
+        <v>0.975</v>
       </c>
       <c r="E29">
-        <v>0.396</v>
+        <v>2.318</v>
       </c>
       <c r="F29">
-        <v>2.527</v>
+        <v>1.394</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.353</v>
+        <v>2.086</v>
       </c>
       <c r="C30">
-        <v>0.388</v>
+        <v>3.276</v>
       </c>
       <c r="D30">
-        <v>0.874</v>
+        <v>0.946</v>
       </c>
       <c r="E30">
-        <v>1.865</v>
+        <v>2.436</v>
       </c>
       <c r="F30">
-        <v>1.825</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.838</v>
+        <v>0.413</v>
       </c>
       <c r="C31">
-        <v>0.703</v>
+        <v>1.865</v>
       </c>
       <c r="D31">
-        <v>0.76</v>
+        <v>1.09</v>
       </c>
       <c r="E31">
-        <v>0.475</v>
+        <v>1.478</v>
       </c>
       <c r="F31">
-        <v>2.551</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.077</v>
+        <v>1.295</v>
       </c>
       <c r="C32">
-        <v>0.903</v>
+        <v>2.819</v>
       </c>
       <c r="D32">
-        <v>0.397</v>
+        <v>0.122</v>
       </c>
       <c r="E32">
-        <v>1.541</v>
+        <v>2.124</v>
       </c>
       <c r="F32">
-        <v>0.776</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.018</v>
+        <v>1.024</v>
       </c>
       <c r="C33">
-        <v>0.873</v>
+        <v>1.526</v>
       </c>
       <c r="D33">
-        <v>0.669</v>
+        <v>0.519</v>
       </c>
       <c r="E33">
-        <v>1.094</v>
+        <v>2.577</v>
       </c>
       <c r="F33">
-        <v>2.107</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.916</v>
+        <v>1.082</v>
       </c>
       <c r="C34">
-        <v>0.788</v>
+        <v>2.847</v>
       </c>
       <c r="D34">
-        <v>1.418</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="E34">
-        <v>0.083</v>
+        <v>2.684</v>
       </c>
       <c r="F34">
-        <v>0.164</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.283</v>
+        <v>0.012</v>
       </c>
       <c r="C35">
-        <v>0.42</v>
+        <v>2.248</v>
       </c>
       <c r="D35">
-        <v>1.612</v>
+        <v>1.138</v>
       </c>
       <c r="E35">
-        <v>1.407</v>
+        <v>1.414</v>
       </c>
       <c r="F35">
-        <v>3.014</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.243</v>
+        <v>0.699</v>
       </c>
       <c r="C36">
-        <v>0.538</v>
+        <v>0.362</v>
       </c>
       <c r="D36">
-        <v>1.399</v>
+        <v>0.617</v>
       </c>
       <c r="E36">
-        <v>0.767</v>
+        <v>0.098</v>
       </c>
       <c r="F36">
-        <v>2.483</v>
+        <v>1.408</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.529</v>
+        <v>1.607</v>
       </c>
       <c r="C37">
-        <v>0.551</v>
+        <v>1.527</v>
       </c>
       <c r="D37">
-        <v>0.58</v>
+        <v>0.879</v>
       </c>
       <c r="E37">
-        <v>1.711</v>
+        <v>2.078</v>
       </c>
       <c r="F37">
-        <v>0.997</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.205</v>
+        <v>3.295</v>
       </c>
       <c r="C38">
-        <v>0.6889999999999999</v>
+        <v>4.787</v>
       </c>
       <c r="D38">
-        <v>1.634</v>
+        <v>1.293</v>
       </c>
       <c r="E38">
-        <v>0.792</v>
+        <v>4.393</v>
       </c>
       <c r="F38">
-        <v>4.881</v>
+        <v>3.146</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.355</v>
+        <v>3.154</v>
       </c>
       <c r="C39">
-        <v>0.406</v>
+        <v>6.744</v>
       </c>
       <c r="D39">
-        <v>1.602</v>
+        <v>1.254</v>
       </c>
       <c r="E39">
-        <v>3.7</v>
+        <v>4.616</v>
       </c>
       <c r="F39">
-        <v>3.513</v>
+        <v>1.588</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.561</v>
+        <v>0.627</v>
       </c>
       <c r="C40">
-        <v>0.736</v>
+        <v>3.842</v>
       </c>
       <c r="D40">
-        <v>1.393</v>
+        <v>1.445</v>
       </c>
       <c r="E40">
-        <v>0.946</v>
+        <v>2.798</v>
       </c>
       <c r="F40">
-        <v>4.902</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.188</v>
+        <v>1.96</v>
       </c>
       <c r="C41">
-        <v>0.945</v>
+        <v>5.806</v>
       </c>
       <c r="D41">
-        <v>0.727</v>
+        <v>0.161</v>
       </c>
       <c r="E41">
-        <v>3.054</v>
+        <v>4.02</v>
       </c>
       <c r="F41">
-        <v>1.491</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.526</v>
+        <v>1.551</v>
       </c>
       <c r="C42">
-        <v>0.914</v>
+        <v>3.146</v>
       </c>
       <c r="D42">
-        <v>1.227</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="E42">
-        <v>2.174</v>
+        <v>4.884</v>
       </c>
       <c r="F42">
-        <v>4.046</v>
+        <v>1.165</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.758</v>
+        <v>1.639</v>
       </c>
       <c r="C43">
-        <v>0.825</v>
+        <v>5.865</v>
       </c>
       <c r="D43">
-        <v>2.599</v>
+        <v>0.919</v>
       </c>
       <c r="E43">
-        <v>0.167</v>
+        <v>5.082</v>
       </c>
       <c r="F43">
-        <v>0.315</v>
+        <v>1.102</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.671</v>
+        <v>0.023</v>
       </c>
       <c r="C44">
-        <v>0.44</v>
+        <v>4.633</v>
       </c>
       <c r="D44">
-        <v>2.955</v>
+        <v>1.508</v>
       </c>
       <c r="E44">
-        <v>2.787</v>
+        <v>2.672</v>
       </c>
       <c r="F44">
-        <v>5.788</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.605</v>
+        <v>1.061</v>
       </c>
       <c r="C45">
-        <v>0.5629999999999999</v>
+        <v>0.754</v>
       </c>
       <c r="D45">
-        <v>2.564</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E45">
-        <v>1.518</v>
+        <v>0.175</v>
       </c>
       <c r="F45">
-        <v>4.768</v>
+        <v>3.127</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.317</v>
+        <v>2.433</v>
       </c>
       <c r="C46">
-        <v>0.577</v>
+        <v>3.151</v>
       </c>
       <c r="D46">
-        <v>1.063</v>
+        <v>1.165</v>
       </c>
       <c r="E46">
-        <v>3.39</v>
+        <v>3.932</v>
       </c>
       <c r="F46">
-        <v>1.914</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>14.277</v>
+        <v>11.09</v>
       </c>
       <c r="C47">
-        <v>1.851</v>
+        <v>4.967</v>
       </c>
       <c r="D47">
-        <v>4.208</v>
+        <v>2.857</v>
       </c>
       <c r="E47">
-        <v>1.941</v>
+        <v>11.927</v>
       </c>
       <c r="F47">
-        <v>10.96</v>
+        <v>3.319</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.719</v>
+        <v>10.616</v>
       </c>
       <c r="C48">
-        <v>1.088</v>
+        <v>6.998</v>
       </c>
       <c r="D48">
-        <v>4.124</v>
+        <v>2.77</v>
       </c>
       <c r="E48">
-        <v>9.048999999999999</v>
+        <v>12.531</v>
       </c>
       <c r="F48">
-        <v>7.881</v>
+        <v>1.675</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10.494</v>
+        <v>2.116</v>
       </c>
       <c r="C49">
-        <v>1.98</v>
+        <v>3.987</v>
       </c>
       <c r="D49">
-        <v>3.586</v>
+        <v>3.192</v>
       </c>
       <c r="E49">
-        <v>2.316</v>
+        <v>7.594</v>
       </c>
       <c r="F49">
-        <v>10.991</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.432</v>
+        <v>6.601</v>
       </c>
       <c r="C50">
-        <v>2.546</v>
+        <v>6.024</v>
       </c>
       <c r="D50">
-        <v>1.871</v>
+        <v>0.355</v>
       </c>
       <c r="E50">
-        <v>7.467</v>
+        <v>10.909</v>
       </c>
       <c r="F50">
-        <v>3.343</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.812</v>
+        <v>5.226</v>
       </c>
       <c r="C51">
-        <v>2.463</v>
+        <v>3.264</v>
       </c>
       <c r="D51">
-        <v>3.159</v>
+        <v>1.521</v>
       </c>
       <c r="E51">
-        <v>5.319</v>
+        <v>13.26</v>
       </c>
       <c r="F51">
-        <v>9.07</v>
+        <v>1.228</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10.949</v>
+        <v>5.524</v>
       </c>
       <c r="C52">
-        <v>2.225</v>
+        <v>6.086</v>
       </c>
       <c r="D52">
-        <v>6.691</v>
+        <v>2.03</v>
       </c>
       <c r="E52">
-        <v>0.41</v>
+        <v>13.793</v>
       </c>
       <c r="F52">
-        <v>0.706</v>
+        <v>1.162</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>13.05</v>
+        <v>0.089</v>
       </c>
       <c r="C53">
-        <v>1.188</v>
+        <v>4.807</v>
       </c>
       <c r="D53">
-        <v>7.607</v>
+        <v>3.332</v>
       </c>
       <c r="E53">
-        <v>6.813</v>
+        <v>7.247</v>
       </c>
       <c r="F53">
-        <v>12.976</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.393</v>
+        <v>3.582</v>
       </c>
       <c r="C54">
-        <v>1.522</v>
+        <v>0.782</v>
       </c>
       <c r="D54">
-        <v>6.6</v>
+        <v>1.807</v>
       </c>
       <c r="E54">
-        <v>3.709</v>
+        <v>0.465</v>
       </c>
       <c r="F54">
-        <v>10.689</v>
+        <v>3.298</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.031</v>
+        <v>8.198</v>
       </c>
       <c r="C55">
-        <v>1.56</v>
+        <v>3.27</v>
       </c>
       <c r="D55">
-        <v>2.736</v>
+        <v>2.574</v>
       </c>
       <c r="E55">
-        <v>8.287000000000001</v>
+        <v>10.669</v>
       </c>
       <c r="F55">
-        <v>4.29</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>33.399</v>
+        <v>29.742</v>
       </c>
       <c r="C56">
-        <v>3.881</v>
+        <v>5.246</v>
       </c>
       <c r="D56">
-        <v>9.862</v>
+        <v>5.592</v>
       </c>
       <c r="E56">
-        <v>4.534</v>
+        <v>29.575</v>
       </c>
       <c r="F56">
-        <v>23.933</v>
+        <v>3.592</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>18.057</v>
+        <v>28.471</v>
       </c>
       <c r="C57">
-        <v>2.281</v>
+        <v>7.392</v>
       </c>
       <c r="D57">
-        <v>9.664999999999999</v>
+        <v>5.421</v>
       </c>
       <c r="E57">
-        <v>21.13</v>
+        <v>31.073</v>
       </c>
       <c r="F57">
-        <v>17.206</v>
+        <v>1.812</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>24.55</v>
+        <v>5.677</v>
       </c>
       <c r="C58">
-        <v>4.152</v>
+        <v>4.211</v>
       </c>
       <c r="D58">
-        <v>8.404</v>
+        <v>6.248</v>
       </c>
       <c r="E58">
-        <v>5.41</v>
+        <v>18.83</v>
       </c>
       <c r="F58">
-        <v>23.993</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.01</v>
+        <v>17.705</v>
       </c>
       <c r="C59">
-        <v>5.341</v>
+        <v>6.363</v>
       </c>
       <c r="D59">
-        <v>4.385</v>
+        <v>0.695</v>
       </c>
       <c r="E59">
-        <v>17.435</v>
+        <v>27.049</v>
       </c>
       <c r="F59">
-        <v>7.298</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>13.597</v>
+        <v>14.017</v>
       </c>
       <c r="C60">
-        <v>5.167</v>
+        <v>3.448</v>
       </c>
       <c r="D60">
-        <v>7.404</v>
+        <v>2.978</v>
       </c>
       <c r="E60">
-        <v>12.421</v>
+        <v>32.88</v>
       </c>
       <c r="F60">
-        <v>19.799</v>
+        <v>1.328</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>25.615</v>
+        <v>14.817</v>
       </c>
       <c r="C61">
-        <v>4.669</v>
+        <v>6.428</v>
       </c>
       <c r="D61">
-        <v>15.681</v>
+        <v>3.973</v>
       </c>
       <c r="E61">
-        <v>0.958</v>
+        <v>34.2</v>
       </c>
       <c r="F61">
-        <v>1.541</v>
+        <v>1.257</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>30.53</v>
+        <v>0.242</v>
       </c>
       <c r="C62">
-        <v>2.493</v>
+        <v>5.077</v>
       </c>
       <c r="D62">
-        <v>17.827</v>
+        <v>6.522</v>
       </c>
       <c r="E62">
-        <v>15.908</v>
+        <v>17.967</v>
       </c>
       <c r="F62">
-        <v>28.325</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.259</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C63">
-        <v>3.194</v>
+        <v>0.826</v>
       </c>
       <c r="D63">
-        <v>15.467</v>
+        <v>3.537</v>
       </c>
       <c r="E63">
-        <v>8.66</v>
+        <v>1.149</v>
       </c>
       <c r="F63">
-        <v>23.333</v>
+        <v>3.568</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.091</v>
+        <v>21.989</v>
       </c>
       <c r="C64">
-        <v>3.275</v>
+        <v>3.454</v>
       </c>
       <c r="D64">
-        <v>6.412</v>
+        <v>5.038</v>
       </c>
       <c r="E64">
-        <v>19.35</v>
+        <v>26.453</v>
       </c>
       <c r="F64">
-        <v>9.365</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>40.433</v>
+        <v>38.132</v>
       </c>
       <c r="C65">
-        <v>11.764</v>
+        <v>13.558</v>
       </c>
       <c r="D65">
-        <v>10.284</v>
+        <v>9.712</v>
       </c>
       <c r="E65">
-        <v>5.188</v>
+        <v>41.724</v>
       </c>
       <c r="F65">
-        <v>29.79</v>
+        <v>12.784</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21.861</v>
+        <v>36.502</v>
       </c>
       <c r="C66">
-        <v>6.924</v>
+        <v>19.106</v>
       </c>
       <c r="D66">
-        <v>10.079</v>
+        <v>9.414999999999999</v>
       </c>
       <c r="E66">
-        <v>24.191</v>
+        <v>43.837</v>
       </c>
       <c r="F66">
-        <v>21.409</v>
+        <v>6.462</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>29.721</v>
+        <v>7.276</v>
       </c>
       <c r="C67">
-        <v>12.585</v>
+        <v>10.882</v>
       </c>
       <c r="D67">
-        <v>8.763999999999999</v>
+        <v>10.852</v>
       </c>
       <c r="E67">
-        <v>6.191</v>
+        <v>26.567</v>
       </c>
       <c r="F67">
-        <v>29.864</v>
+        <v>2.246</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.226</v>
+        <v>22.698</v>
       </c>
       <c r="C68">
-        <v>16.182</v>
+        <v>16.447</v>
       </c>
       <c r="D68">
-        <v>4.573</v>
+        <v>1.207</v>
       </c>
       <c r="E68">
-        <v>19.96</v>
+        <v>38.16</v>
       </c>
       <c r="F68">
-        <v>9.066000000000001</v>
+        <v>3.319</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>16.463</v>
+        <v>17.97</v>
       </c>
       <c r="C69">
-        <v>15.657</v>
+        <v>8.909000000000001</v>
       </c>
       <c r="D69">
-        <v>7.721</v>
+        <v>5.172</v>
       </c>
       <c r="E69">
-        <v>14.219</v>
+        <v>46.386</v>
       </c>
       <c r="F69">
-        <v>24.639</v>
+        <v>4.741</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31.01</v>
+        <v>18.995</v>
       </c>
       <c r="C70">
-        <v>14.151</v>
+        <v>16.615</v>
       </c>
       <c r="D70">
-        <v>16.352</v>
+        <v>6.901</v>
       </c>
       <c r="E70">
-        <v>1.094</v>
+        <v>48.247</v>
       </c>
       <c r="F70">
-        <v>1.895</v>
+        <v>4.488</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>36.96</v>
+        <v>0.308</v>
       </c>
       <c r="C71">
-        <v>7.569</v>
+        <v>13.123</v>
       </c>
       <c r="D71">
-        <v>18.59</v>
+        <v>11.327</v>
       </c>
       <c r="E71">
-        <v>18.212</v>
+        <v>25.349</v>
       </c>
       <c r="F71">
-        <v>35.26</v>
+        <v>1.734</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.948</v>
+        <v>12.319</v>
       </c>
       <c r="C72">
-        <v>9.69</v>
+        <v>2.131</v>
       </c>
       <c r="D72">
-        <v>16.129</v>
+        <v>6.143</v>
       </c>
       <c r="E72">
-        <v>9.912000000000001</v>
+        <v>1.626</v>
       </c>
       <c r="F72">
-        <v>29.042</v>
+        <v>12.677</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8.587</v>
+        <v>28.191</v>
       </c>
       <c r="C73">
-        <v>9.936</v>
+        <v>8.926</v>
       </c>
       <c r="D73">
-        <v>6.686</v>
+        <v>8.75</v>
       </c>
       <c r="E73">
-        <v>22.153</v>
+        <v>37.319</v>
       </c>
       <c r="F73">
-        <v>11.641</v>
+        <v>2.616</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>99.45699999999999</v>
+        <v>53.08</v>
       </c>
       <c r="C74">
-        <v>20.146</v>
+        <v>27.74</v>
       </c>
       <c r="D74">
-        <v>10.54</v>
+        <v>17.096</v>
       </c>
       <c r="E74">
-        <v>18.037</v>
+        <v>63.928</v>
       </c>
       <c r="F74">
-        <v>34.692</v>
+        <v>31.206</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>53.136</v>
+        <v>50.811</v>
       </c>
       <c r="C75">
-        <v>11.961</v>
+        <v>39.093</v>
       </c>
       <c r="D75">
-        <v>10.332</v>
+        <v>16.573</v>
       </c>
       <c r="E75">
-        <v>83.34699999999999</v>
+        <v>67.16500000000001</v>
       </c>
       <c r="F75">
-        <v>25.016</v>
+        <v>15.777</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>73.345</v>
+        <v>10.127</v>
       </c>
       <c r="C76">
-        <v>22.403</v>
+        <v>22.265</v>
       </c>
       <c r="D76">
-        <v>8.977</v>
+        <v>19.102</v>
       </c>
       <c r="E76">
-        <v>21.598</v>
+        <v>40.706</v>
       </c>
       <c r="F76">
-        <v>34.775</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.742</v>
+        <v>31.595</v>
       </c>
       <c r="C77">
-        <v>27.988</v>
+        <v>33.652</v>
       </c>
       <c r="D77">
-        <v>4.677</v>
+        <v>2.125</v>
       </c>
       <c r="E77">
-        <v>68.20399999999999</v>
+        <v>58.468</v>
       </c>
       <c r="F77">
-        <v>10.621</v>
+        <v>8.106999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>40.829</v>
+        <v>25.013</v>
       </c>
       <c r="C78">
-        <v>26.925</v>
+        <v>18.228</v>
       </c>
       <c r="D78">
-        <v>7.908</v>
+        <v>9.103999999999999</v>
       </c>
       <c r="E78">
-        <v>48.982</v>
+        <v>71.071</v>
       </c>
       <c r="F78">
-        <v>28.751</v>
+        <v>11.577</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>75.697</v>
+        <v>26.44</v>
       </c>
       <c r="C79">
-        <v>24.435</v>
+        <v>33.996</v>
       </c>
       <c r="D79">
-        <v>16.755</v>
+        <v>12.147</v>
       </c>
       <c r="E79">
-        <v>3.912</v>
+        <v>73.922</v>
       </c>
       <c r="F79">
-        <v>2.21</v>
+        <v>10.959</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>91.35299999999999</v>
+        <v>0.427</v>
       </c>
       <c r="C80">
-        <v>13.311</v>
+        <v>26.851</v>
       </c>
       <c r="D80">
-        <v>19.053</v>
+        <v>19.938</v>
       </c>
       <c r="E80">
-        <v>62.496</v>
+        <v>38.84</v>
       </c>
       <c r="F80">
-        <v>41.188</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9.535</v>
+        <v>17.147</v>
       </c>
       <c r="C81">
-        <v>16.617</v>
+        <v>4.359</v>
       </c>
       <c r="D81">
-        <v>16.527</v>
+        <v>10.813</v>
       </c>
       <c r="E81">
-        <v>34.091</v>
+        <v>2.495</v>
       </c>
       <c r="F81">
-        <v>33.873</v>
+        <v>30.939</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21.577</v>
+        <v>39.242</v>
       </c>
       <c r="C82">
-        <v>17.781</v>
+        <v>18.263</v>
       </c>
       <c r="D82">
-        <v>6.856</v>
+        <v>15.402</v>
       </c>
       <c r="E82">
-        <v>76.139</v>
+        <v>57.179</v>
       </c>
       <c r="F82">
-        <v>13.528</v>
+        <v>6.391</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>160.926</v>
+        <v>101.236</v>
       </c>
       <c r="C83">
-        <v>50.039</v>
+        <v>27.921</v>
       </c>
       <c r="D83">
-        <v>44.917</v>
+        <v>21.589</v>
       </c>
       <c r="E83">
-        <v>31.731</v>
+        <v>174.107</v>
       </c>
       <c r="F83">
-        <v>37.286</v>
+        <v>49.81</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>85.485</v>
+        <v>96.90900000000001</v>
       </c>
       <c r="C84">
-        <v>29.763</v>
+        <v>39.349</v>
       </c>
       <c r="D84">
-        <v>43.688</v>
+        <v>20.929</v>
       </c>
       <c r="E84">
-        <v>146.644</v>
+        <v>182.923</v>
       </c>
       <c r="F84">
-        <v>26.903</v>
+        <v>25.184</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>118.783</v>
+        <v>19.312</v>
       </c>
       <c r="C85">
-        <v>56.407</v>
+        <v>22.411</v>
       </c>
       <c r="D85">
-        <v>37.945</v>
+        <v>24.122</v>
       </c>
       <c r="E85">
-        <v>38.165</v>
+        <v>110.865</v>
       </c>
       <c r="F85">
-        <v>37.368</v>
+        <v>8.763999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.304</v>
+        <v>60.258</v>
       </c>
       <c r="C86">
-        <v>69.342</v>
+        <v>33.872</v>
       </c>
       <c r="D86">
-        <v>18.581</v>
+        <v>2.683</v>
       </c>
       <c r="E86">
-        <v>119.954</v>
+        <v>159.237</v>
       </c>
       <c r="F86">
-        <v>11.434</v>
+        <v>12.941</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>65.98699999999999</v>
+        <v>47.704</v>
       </c>
       <c r="C87">
-        <v>66.169</v>
+        <v>18.347</v>
       </c>
       <c r="D87">
-        <v>32.398</v>
+        <v>11.497</v>
       </c>
       <c r="E87">
-        <v>86.07599999999999</v>
+        <v>193.56</v>
       </c>
       <c r="F87">
-        <v>30.919</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>122.22</v>
+        <v>50.426</v>
       </c>
       <c r="C88">
-        <v>59.713</v>
+        <v>34.218</v>
       </c>
       <c r="D88">
-        <v>71.648</v>
+        <v>15.34</v>
       </c>
       <c r="E88">
-        <v>7.29</v>
+        <v>201.325</v>
       </c>
       <c r="F88">
-        <v>2.367</v>
+        <v>17.493</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>147.428</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C89">
-        <v>33.597</v>
+        <v>27.027</v>
       </c>
       <c r="D89">
-        <v>81.75700000000001</v>
+        <v>25.178</v>
       </c>
       <c r="E89">
-        <v>110.365</v>
+        <v>105.784</v>
       </c>
       <c r="F89">
-        <v>44.286</v>
+        <v>6.769</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>15.206</v>
+        <v>32.701</v>
       </c>
       <c r="C90">
-        <v>40.44</v>
+        <v>4.388</v>
       </c>
       <c r="D90">
-        <v>69.28</v>
+        <v>13.655</v>
       </c>
       <c r="E90">
-        <v>60.13</v>
+        <v>6.802</v>
       </c>
       <c r="F90">
-        <v>36.415</v>
+        <v>49.383</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>34.73</v>
+        <v>74.843</v>
       </c>
       <c r="C91">
-        <v>44.421</v>
+        <v>18.382</v>
       </c>
       <c r="D91">
-        <v>30.025</v>
+        <v>19.45</v>
       </c>
       <c r="E91">
-        <v>134.319</v>
+        <v>155.727</v>
       </c>
       <c r="F91">
-        <v>14.543</v>
+        <v>10.202</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>480.51</v>
+        <v>209.263</v>
       </c>
       <c r="C92">
-        <v>110.335</v>
+        <v>107.779</v>
       </c>
       <c r="D92">
-        <v>60.299</v>
+        <v>68.517</v>
       </c>
       <c r="E92">
-        <v>31.98</v>
+        <v>403.421</v>
       </c>
       <c r="F92">
-        <v>123.646</v>
+        <v>120.904</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>253.65</v>
+        <v>199.728</v>
       </c>
       <c r="C93">
-        <v>65.34</v>
+        <v>153.672</v>
       </c>
       <c r="D93">
-        <v>58.538</v>
+        <v>65.96299999999999</v>
       </c>
       <c r="E93">
-        <v>147.812</v>
+        <v>423.661</v>
       </c>
       <c r="F93">
-        <v>90.17100000000001</v>
+        <v>60.605</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>355.207</v>
+        <v>39.478</v>
       </c>
       <c r="C94">
-        <v>125.334</v>
+        <v>88.00700000000001</v>
       </c>
       <c r="D94">
-        <v>50.886</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="E94">
-        <v>38.467</v>
+        <v>256.741</v>
       </c>
       <c r="F94">
-        <v>123.999</v>
+        <v>20.673</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>11.907</v>
+        <v>124.175</v>
       </c>
       <c r="C95">
-        <v>153.955</v>
+        <v>132.374</v>
       </c>
       <c r="D95">
-        <v>24.783</v>
+        <v>9.284000000000001</v>
       </c>
       <c r="E95">
-        <v>120.909</v>
+        <v>369.209</v>
       </c>
       <c r="F95">
-        <v>38.759</v>
+        <v>31.525</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>196.149</v>
+        <v>98.685</v>
       </c>
       <c r="C96">
-        <v>146.754</v>
+        <v>70.566</v>
       </c>
       <c r="D96">
-        <v>43.397</v>
+        <v>37.074</v>
       </c>
       <c r="E96">
-        <v>86.762</v>
+        <v>449.276</v>
       </c>
       <c r="F96">
-        <v>102.857</v>
+        <v>45.413</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>364.438</v>
+        <v>104.401</v>
       </c>
       <c r="C97">
-        <v>132.007</v>
+        <v>133.47</v>
       </c>
       <c r="D97">
-        <v>96.17700000000001</v>
+        <v>48.319</v>
       </c>
       <c r="E97">
-        <v>7.352</v>
+        <v>466.52</v>
       </c>
       <c r="F97">
-        <v>7.626</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>439.735</v>
+        <v>1.581</v>
       </c>
       <c r="C98">
-        <v>74.83199999999999</v>
+        <v>105.422</v>
       </c>
       <c r="D98">
-        <v>109.686</v>
+        <v>79.399</v>
       </c>
       <c r="E98">
-        <v>111.242</v>
+        <v>245.741</v>
       </c>
       <c r="F98">
-        <v>147.43</v>
+        <v>15.804</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>45.653</v>
+        <v>67.624</v>
       </c>
       <c r="C99">
-        <v>89.279</v>
+        <v>17.435</v>
       </c>
       <c r="D99">
-        <v>92.88200000000001</v>
+        <v>43.531</v>
       </c>
       <c r="E99">
-        <v>60.605</v>
+        <v>16.04</v>
       </c>
       <c r="F99">
-        <v>120.979</v>
+        <v>119.044</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>103.788</v>
+        <v>154.537</v>
       </c>
       <c r="C100">
-        <v>98.241</v>
+        <v>71.333</v>
       </c>
       <c r="D100">
-        <v>40.458</v>
+        <v>62.062</v>
       </c>
       <c r="E100">
-        <v>135.389</v>
+        <v>360.915</v>
       </c>
       <c r="F100">
-        <v>48.269</v>
+        <v>24.543</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1076.33</v>
+        <v>415.519</v>
       </c>
       <c r="C101">
-        <v>127.236</v>
+        <v>138.066</v>
       </c>
       <c r="D101">
-        <v>69.42</v>
+        <v>108.602</v>
       </c>
       <c r="E101">
-        <v>99.414</v>
+        <v>683.014</v>
       </c>
       <c r="F101">
-        <v>391.121</v>
+        <v>128.398</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>568.197</v>
+        <v>396.338</v>
       </c>
       <c r="C102">
-        <v>75.384</v>
+        <v>196.849</v>
       </c>
       <c r="D102">
-        <v>67.35599999999999</v>
+        <v>104.224</v>
       </c>
       <c r="E102">
-        <v>460.532</v>
+        <v>717.198</v>
       </c>
       <c r="F102">
-        <v>286.267</v>
+        <v>64.371</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>796.567</v>
+        <v>78.52800000000001</v>
       </c>
       <c r="C103">
-        <v>144.673</v>
+        <v>112.863</v>
       </c>
       <c r="D103">
-        <v>58.525</v>
+        <v>120.619</v>
       </c>
       <c r="E103">
-        <v>119.97</v>
+        <v>434.463</v>
       </c>
       <c r="F103">
-        <v>391.275</v>
+        <v>21.925</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>26.638</v>
+        <v>246.332</v>
       </c>
       <c r="C104">
-        <v>177.75</v>
+        <v>169.517</v>
       </c>
       <c r="D104">
-        <v>28.442</v>
+        <v>14.892</v>
       </c>
       <c r="E104">
-        <v>375.95</v>
+        <v>624.782</v>
       </c>
       <c r="F104">
-        <v>122.269</v>
+        <v>33.493</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>439.65</v>
+        <v>195.911</v>
       </c>
       <c r="C105">
-        <v>169.41</v>
+        <v>90.437</v>
       </c>
       <c r="D105">
-        <v>49.897</v>
+        <v>59.061</v>
       </c>
       <c r="E105">
-        <v>269.564</v>
+        <v>760.828</v>
       </c>
       <c r="F105">
-        <v>325.293</v>
+        <v>48.224</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>816.482</v>
+        <v>207.329</v>
       </c>
       <c r="C106">
-        <v>152.345</v>
+        <v>171.05</v>
       </c>
       <c r="D106">
-        <v>110.692</v>
+        <v>76.408</v>
       </c>
       <c r="E106">
-        <v>23.577</v>
+        <v>789.856</v>
       </c>
       <c r="F106">
-        <v>23.644</v>
+        <v>44.856</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>984.655</v>
+        <v>2.935</v>
       </c>
       <c r="C107">
-        <v>86.404</v>
+        <v>135.003</v>
       </c>
       <c r="D107">
-        <v>126.164</v>
+        <v>125.75</v>
       </c>
       <c r="E107">
-        <v>346.199</v>
+        <v>416.21</v>
       </c>
       <c r="F107">
-        <v>465.571</v>
+        <v>16.774</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>102.382</v>
+        <v>134.203</v>
       </c>
       <c r="C108">
-        <v>103.07</v>
+        <v>22.379</v>
       </c>
       <c r="D108">
-        <v>106.896</v>
+        <v>69.012</v>
       </c>
       <c r="E108">
-        <v>187.505</v>
+        <v>27.114</v>
       </c>
       <c r="F108">
-        <v>382.036</v>
+        <v>126.456</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>232.205</v>
+        <v>307.008</v>
       </c>
       <c r="C109">
-        <v>113.326</v>
+        <v>91.393</v>
       </c>
       <c r="D109">
-        <v>46.64</v>
+        <v>98.515</v>
       </c>
       <c r="E109">
-        <v>421.767</v>
+        <v>610.596</v>
       </c>
       <c r="F109">
-        <v>152.46</v>
+        <v>26.074</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2322.233</v>
+        <v>1197.972</v>
       </c>
       <c r="C110">
-        <v>274.096</v>
+        <v>154.777</v>
       </c>
       <c r="D110">
-        <v>194.682</v>
+        <v>252.455</v>
       </c>
       <c r="E110">
-        <v>166.838</v>
+        <v>988.931</v>
       </c>
       <c r="F110">
-        <v>622.139</v>
+        <v>252.613</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1225.495</v>
+        <v>1143.266</v>
       </c>
       <c r="C111">
-        <v>162.424</v>
+        <v>220.594</v>
       </c>
       <c r="D111">
-        <v>188.954</v>
+        <v>242.033</v>
       </c>
       <c r="E111">
-        <v>773.165</v>
+        <v>1038.599</v>
       </c>
       <c r="F111">
-        <v>455.249</v>
+        <v>126.57</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1718.551</v>
+        <v>226.816</v>
       </c>
       <c r="C112">
-        <v>312.083</v>
+        <v>126.546</v>
       </c>
       <c r="D112">
-        <v>163.68</v>
+        <v>280.47</v>
       </c>
       <c r="E112">
-        <v>201.668</v>
+        <v>628.987</v>
       </c>
       <c r="F112">
-        <v>621.992</v>
+        <v>42.792</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>57.59</v>
+        <v>709.6</v>
       </c>
       <c r="C113">
-        <v>383.446</v>
+        <v>190.013</v>
       </c>
       <c r="D113">
-        <v>79.07599999999999</v>
+        <v>35.09</v>
       </c>
       <c r="E113">
-        <v>631.165</v>
+        <v>904.703</v>
       </c>
       <c r="F113">
-        <v>194.492</v>
+        <v>65.80200000000001</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>948.395</v>
+        <v>564.801</v>
       </c>
       <c r="C114">
-        <v>365.832</v>
+        <v>101.409</v>
       </c>
       <c r="D114">
-        <v>139.175</v>
+        <v>138.015</v>
       </c>
       <c r="E114">
-        <v>452.662</v>
+        <v>1101.894</v>
       </c>
       <c r="F114">
-        <v>517.329</v>
+        <v>95.06399999999999</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1761.512</v>
+        <v>597.277</v>
       </c>
       <c r="C115">
-        <v>328.594</v>
+        <v>191.726</v>
       </c>
       <c r="D115">
-        <v>310.202</v>
+        <v>177.677</v>
       </c>
       <c r="E115">
-        <v>39.744</v>
+        <v>1143.634</v>
       </c>
       <c r="F115">
-        <v>37.42</v>
+        <v>87.934</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2124.137</v>
+        <v>8.074</v>
       </c>
       <c r="C116">
-        <v>186.705</v>
+        <v>151.288</v>
       </c>
       <c r="D116">
-        <v>353.197</v>
+        <v>292.684</v>
       </c>
       <c r="E116">
-        <v>581.203</v>
+        <v>602.74</v>
       </c>
       <c r="F116">
-        <v>740.064</v>
+        <v>33.148</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>221.311</v>
+        <v>386.881</v>
       </c>
       <c r="C117">
-        <v>222.185</v>
+        <v>25.089</v>
       </c>
       <c r="D117">
-        <v>299.529</v>
+        <v>160.268</v>
       </c>
       <c r="E117">
-        <v>314.609</v>
+        <v>39.112</v>
       </c>
       <c r="F117">
-        <v>607.235</v>
+        <v>248.699</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,19 +7428,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>500.887</v>
+        <v>886.2190000000001</v>
       </c>
       <c r="C118">
-        <v>243.896</v>
+        <v>102.467</v>
       </c>
       <c r="D118">
-        <v>131.762</v>
+        <v>228.768</v>
       </c>
       <c r="E118">
-        <v>708.201</v>
+        <v>884.01</v>
       </c>
       <c r="F118">
-        <v>242.193</v>
+        <v>51.222</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7448,19 +7448,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>3877.881</v>
+        <v>1503.465</v>
       </c>
       <c r="C119">
-        <v>486.288</v>
+        <v>382.332</v>
       </c>
       <c r="D119">
-        <v>302.873</v>
+        <v>682.362</v>
       </c>
       <c r="E119">
-        <v>503.213</v>
+        <v>2357.399</v>
       </c>
       <c r="F119">
-        <v>1897.852</v>
+        <v>321.298</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7468,19 +7468,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2046.219</v>
+        <v>1434.822</v>
       </c>
       <c r="C120">
-        <v>288.106</v>
+        <v>544.0069999999999</v>
       </c>
       <c r="D120">
-        <v>293.877</v>
+        <v>653.676</v>
       </c>
       <c r="E120">
-        <v>2334.503</v>
+        <v>2476.043</v>
       </c>
       <c r="F120">
-        <v>1388.686</v>
+        <v>161.061</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7488,19 +7488,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2869.586</v>
+        <v>284.598</v>
       </c>
       <c r="C121">
-        <v>553.626</v>
+        <v>312.876</v>
       </c>
       <c r="D121">
-        <v>254.592</v>
+        <v>757.857</v>
       </c>
       <c r="E121">
-        <v>609.544</v>
+        <v>1499.132</v>
       </c>
       <c r="F121">
-        <v>1896.298</v>
+        <v>54.349</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7508,19 +7508,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>96.16500000000001</v>
+        <v>890.504</v>
       </c>
       <c r="C122">
-        <v>680.2910000000001</v>
+        <v>469.252</v>
       </c>
       <c r="D122">
-        <v>122.964</v>
+        <v>94.807</v>
       </c>
       <c r="E122">
-        <v>1906.738</v>
+        <v>2157.05</v>
       </c>
       <c r="F122">
-        <v>593.634</v>
+        <v>83.699</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7528,19 +7528,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1583.592</v>
+        <v>708.783</v>
       </c>
       <c r="C123">
-        <v>649.106</v>
+        <v>250.809</v>
       </c>
       <c r="D123">
-        <v>216.526</v>
+        <v>373.241</v>
       </c>
       <c r="E123">
-        <v>1366.857</v>
+        <v>2627.41</v>
       </c>
       <c r="F123">
-        <v>1578.648</v>
+        <v>120.932</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7548,19 +7548,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2941.4</v>
+        <v>749.569</v>
       </c>
       <c r="C124">
-        <v>583.035</v>
+        <v>473.313</v>
       </c>
       <c r="D124">
-        <v>482.57</v>
+        <v>480.425</v>
       </c>
       <c r="E124">
-        <v>120.453</v>
+        <v>2726.403</v>
       </c>
       <c r="F124">
-        <v>114.442</v>
+        <v>111.793</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7568,19 +7568,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>3547.018</v>
+        <v>10.168</v>
       </c>
       <c r="C125">
-        <v>331.479</v>
+        <v>372.745</v>
       </c>
       <c r="D125">
-        <v>549.638</v>
+        <v>791.304</v>
       </c>
       <c r="E125">
-        <v>1755.244</v>
+        <v>1436.756</v>
       </c>
       <c r="F125">
-        <v>2257.32</v>
+        <v>42.228</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7588,19 +7588,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>369.568</v>
+        <v>485.558</v>
       </c>
       <c r="C126">
-        <v>393.85</v>
+        <v>61.946</v>
       </c>
       <c r="D126">
-        <v>466.018</v>
+        <v>433.685</v>
       </c>
       <c r="E126">
-        <v>949.5549999999999</v>
+        <v>92.861</v>
       </c>
       <c r="F126">
-        <v>1851.514</v>
+        <v>316.426</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7608,19 +7608,199 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>836.586</v>
+        <v>1112.235</v>
       </c>
       <c r="C127">
-        <v>432.475</v>
+        <v>253.02</v>
       </c>
       <c r="D127">
-        <v>205.236</v>
+        <v>618.903</v>
       </c>
       <c r="E127">
-        <v>2138.645</v>
+        <v>2107.512</v>
       </c>
       <c r="F127">
-        <v>737.607</v>
+        <v>65.087</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>4068.447</v>
+      </c>
+      <c r="C128">
+        <v>836.448</v>
+      </c>
+      <c r="D128">
+        <v>842.96</v>
+      </c>
+      <c r="E128">
+        <v>3824.32</v>
+      </c>
+      <c r="F128">
+        <v>560.117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>3882.488</v>
+      </c>
+      <c r="C129">
+        <v>1189.627</v>
+      </c>
+      <c r="D129">
+        <v>807.421</v>
+      </c>
+      <c r="E129">
+        <v>4016.74</v>
+      </c>
+      <c r="F129">
+        <v>280.855</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>770.128</v>
+      </c>
+      <c r="C130">
+        <v>684.3680000000001</v>
+      </c>
+      <c r="D130">
+        <v>936.098</v>
+      </c>
+      <c r="E130">
+        <v>2431.95</v>
+      </c>
+      <c r="F130">
+        <v>94.76000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>2409.753</v>
+      </c>
+      <c r="C131">
+        <v>1026.803</v>
+      </c>
+      <c r="D131">
+        <v>117.045</v>
+      </c>
+      <c r="E131">
+        <v>3499.496</v>
+      </c>
+      <c r="F131">
+        <v>146.024</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>1918.259</v>
+      </c>
+      <c r="C132">
+        <v>548.9160000000001</v>
+      </c>
+      <c r="D132">
+        <v>461.045</v>
+      </c>
+      <c r="E132">
+        <v>4262.258</v>
+      </c>
+      <c r="F132">
+        <v>210.951</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>2028.569</v>
+      </c>
+      <c r="C133">
+        <v>1035.188</v>
+      </c>
+      <c r="D133">
+        <v>593.412</v>
+      </c>
+      <c r="E133">
+        <v>4422.993</v>
+      </c>
+      <c r="F133">
+        <v>194.937</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>27.259</v>
+      </c>
+      <c r="C134">
+        <v>815.263</v>
+      </c>
+      <c r="D134">
+        <v>977.527</v>
+      </c>
+      <c r="E134">
+        <v>2330.876</v>
+      </c>
+      <c r="F134">
+        <v>73.68000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1313.696</v>
+      </c>
+      <c r="C135">
+        <v>135.805</v>
+      </c>
+      <c r="D135">
+        <v>535.851</v>
+      </c>
+      <c r="E135">
+        <v>150.611</v>
+      </c>
+      <c r="F135">
+        <v>551.652</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>3010.348</v>
+      </c>
+      <c r="C136">
+        <v>553.543</v>
+      </c>
+      <c r="D136">
+        <v>764.614</v>
+      </c>
+      <c r="E136">
+        <v>3418.865</v>
+      </c>
+      <c r="F136">
+        <v>113.334</v>
       </c>
     </row>
   </sheetData>
